--- a/public/download/fvf/places-fvf.xlsx
+++ b/public/download/fvf/places-fvf.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>№ п/п</t>
   </si>
@@ -179,21 +179,6 @@
   </si>
   <si>
     <t>Местоположение скорректировано (согласовать местоположение)</t>
-  </si>
-  <si>
-    <t>FVF-PLC012</t>
-  </si>
-  <si>
-    <t>Предлагаемое место МВД 12</t>
-  </si>
-  <si>
-    <t>а/д Берсеневка- Пензятка, 8-10 км</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Место в расчет не берется (будет удалено из списка)</t>
   </si>
   <si>
     <t>FVF-PLC013</t>
@@ -650,7 +635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -662,13 +647,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +668,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -746,30 +742,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,6 +788,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -808,10 +805,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -988,11 +985,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1001,7 +1001,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1016,19 +1016,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1276,12 +1276,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1572,7 +1572,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1853,11 +1853,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1868,7 +1866,7 @@
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.8516" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.9922" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1918,10 +1916,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="3">
-        <v>54.2014536666564</v>
+        <v>54.2003214215162</v>
       </c>
       <c r="G2" s="3">
-        <v>45.1200414598389</v>
+        <v>45.1206443981169</v>
       </c>
       <c r="H2" t="s" s="4">
         <v>13</v>
@@ -1945,10 +1943,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="6">
-        <v>54.1816874817897</v>
+        <v>54.1807475224665</v>
       </c>
       <c r="G3" s="6">
-        <v>45.1302111851806</v>
+        <v>45.1310084537504</v>
       </c>
       <c r="H3" t="s" s="7">
         <v>17</v>
@@ -1972,10 +1970,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="6">
-        <v>54.1709121338988</v>
+        <v>54.1715663256906</v>
       </c>
       <c r="G4" s="6">
-        <v>45.2075887620849</v>
+        <v>45.2084279046628</v>
       </c>
       <c r="H4" t="s" s="7">
         <v>21</v>
@@ -1999,10 +1997,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="6">
-        <v>54.1778106954303</v>
+        <v>54.181919863271</v>
       </c>
       <c r="G5" s="6">
-        <v>45.219132989685</v>
+        <v>45.2213346944423</v>
       </c>
       <c r="H5" t="s" s="7">
         <v>25</v>
@@ -2026,10 +2024,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="6">
-        <v>54.1976187496026</v>
+        <v>54.1971743274671</v>
       </c>
       <c r="G6" s="6">
-        <v>45.1375938356322</v>
+        <v>45.1383249045408</v>
       </c>
       <c r="H6" t="s" s="7">
         <v>29</v>
@@ -2053,10 +2051,10 @@
         <v>33</v>
       </c>
       <c r="F7" s="6">
-        <v>54.2266693881449</v>
+        <v>54.2276060375678</v>
       </c>
       <c r="G7" s="6">
-        <v>45.2158455291135</v>
+        <v>45.2163497844085</v>
       </c>
       <c r="H7" t="s" s="7">
         <v>25</v>
@@ -2080,10 +2078,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="6">
-        <v>54.2099129602664</v>
+        <v>54.2104064183889</v>
       </c>
       <c r="G8" s="6">
-        <v>45.2675585189207</v>
+        <v>45.268730899475</v>
       </c>
       <c r="H8" t="s" s="7">
         <v>37</v>
@@ -2107,10 +2105,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="6">
-        <v>54.1892646281828</v>
+        <v>54.1892030865251</v>
       </c>
       <c r="G9" s="6">
-        <v>45.2230729312129</v>
+        <v>45.2228949547804</v>
       </c>
       <c r="H9" t="s" s="7">
         <v>41</v>
@@ -2134,10 +2132,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="6">
-        <v>54.1406740849204</v>
+        <v>54.1446977685109</v>
       </c>
       <c r="G10" s="6">
-        <v>45.1785589904016</v>
+        <v>45.1892241856683</v>
       </c>
       <c r="H10" t="s" s="7">
         <v>45</v>
@@ -2161,10 +2159,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="6">
-        <v>54.1730208422336</v>
+        <v>54.1783849545214</v>
       </c>
       <c r="G11" s="6">
-        <v>45.2557945908704</v>
+        <v>45.2788743397818</v>
       </c>
       <c r="H11" t="s" s="7">
         <v>49</v>
@@ -2188,10 +2186,10 @@
         <v>53</v>
       </c>
       <c r="F12" s="6">
-        <v>54.2214538330342</v>
+        <v>54.2323231027265</v>
       </c>
       <c r="G12" s="6">
-        <v>45.0434375703701</v>
+        <v>44.9964327597121</v>
       </c>
       <c r="H12" t="s" s="7">
         <v>54</v>
@@ -2200,7 +2198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" ht="32.05" customHeight="1">
+    <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2217,17 +2215,15 @@
         <v>59</v>
       </c>
       <c r="F13" s="6">
-        <v>54.2289356114633</v>
+        <v>54.2992361978256</v>
       </c>
       <c r="G13" s="6">
-        <v>45.019192859572</v>
+        <v>45.4316091858888</v>
       </c>
       <c r="H13" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s" s="9">
         <v>60</v>
       </c>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="6">
@@ -2243,16 +2239,16 @@
         <v>63</v>
       </c>
       <c r="E14" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6">
+        <v>54.3490342608452</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45.5703374287108</v>
+      </c>
+      <c r="H14" t="s" s="7">
         <v>64</v>
-      </c>
-      <c r="F14" s="6">
-        <v>54.2925630804676</v>
-      </c>
-      <c r="G14" s="6">
-        <v>45.4218031615436</v>
-      </c>
-      <c r="H14" t="s" s="7">
-        <v>65</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -2261,25 +2257,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="D15" t="s" s="7">
         <v>67</v>
       </c>
-      <c r="D15" t="s" s="7">
+      <c r="E15" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6">
+        <v>54.3842000367184</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45.7447194048155</v>
+      </c>
+      <c r="H15" t="s" s="7">
         <v>68</v>
-      </c>
-      <c r="E15" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F15" s="6">
-        <v>54.3494363880242</v>
-      </c>
-      <c r="G15" s="6">
-        <v>45.571749374312</v>
-      </c>
-      <c r="H15" t="s" s="7">
-        <v>69</v>
       </c>
       <c r="I15" s="9"/>
     </row>
@@ -2288,49 +2284,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s" s="7">
         <v>70</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="D16" t="s" s="7">
         <v>71</v>
       </c>
-      <c r="D16" t="s" s="7">
-        <v>72</v>
-      </c>
       <c r="E16" t="s" s="7">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F16" s="6">
-        <v>54.3832920166752</v>
+        <v>54.4136127126742</v>
       </c>
       <c r="G16" s="6">
-        <v>45.7406641692337</v>
+        <v>45.9842103373145</v>
       </c>
       <c r="H16" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="I16" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="C17" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s" s="7">
-        <v>76</v>
-      </c>
       <c r="E17" t="s" s="7">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F17" s="6">
-        <v>54.4107368331333</v>
+        <v>54.4110970484187</v>
       </c>
       <c r="G17" s="6">
-        <v>45.9353281706985</v>
+        <v>46.437306224884</v>
       </c>
       <c r="H17" t="s" s="7">
         <v>41</v>
@@ -2342,106 +2338,106 @@
         <v>17</v>
       </c>
       <c r="B18" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s" s="7">
         <v>77</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="E18" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="F18" s="6">
+        <v>54.2960554711394</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45.0807377239681</v>
+      </c>
+      <c r="H18" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="D18" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="F18" s="6">
-        <v>54.4111874151962</v>
-      </c>
-      <c r="G18" s="6">
-        <v>46.4467074126417</v>
-      </c>
-      <c r="H18" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s" s="7">
         <v>80</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="D19" t="s" s="7">
         <v>81</v>
       </c>
-      <c r="D19" t="s" s="7">
-        <v>82</v>
-      </c>
       <c r="E19" t="s" s="7">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F19" s="6">
-        <v>54.2577529223895</v>
+        <v>54.0033479645949</v>
       </c>
       <c r="G19" s="6">
-        <v>45.1334549636059</v>
+        <v>44.8987345634458</v>
       </c>
       <c r="H19" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="I19" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s" s="7">
         <v>84</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="E20" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="F20" s="6">
+        <v>54.5343487221421</v>
+      </c>
+      <c r="G20" s="6">
+        <v>45.9241810928341</v>
+      </c>
+      <c r="H20" t="s" s="7">
         <v>85</v>
       </c>
-      <c r="D20" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F20" s="6">
-        <v>54.0346315141861</v>
-      </c>
-      <c r="G20" s="6">
-        <v>44.9006821364573</v>
-      </c>
-      <c r="H20" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s" s="7">
         <v>87</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="D21" t="s" s="7">
         <v>88</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>89</v>
       </c>
       <c r="E21" t="s" s="7">
         <v>53</v>
       </c>
       <c r="F21" s="6">
-        <v>54.5248252440802</v>
+        <v>54.5891905350236</v>
       </c>
       <c r="G21" s="6">
-        <v>45.9013821334053</v>
+        <v>46.1116576878792</v>
       </c>
       <c r="H21" t="s" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21" s="9"/>
     </row>
@@ -2450,25 +2446,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s" s="7">
         <v>91</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="D22" t="s" s="7">
         <v>92</v>
-      </c>
-      <c r="D22" t="s" s="7">
-        <v>93</v>
       </c>
       <c r="E22" t="s" s="7">
         <v>53</v>
       </c>
       <c r="F22" s="6">
-        <v>54.6184263447004</v>
+        <v>54.8445277059697</v>
       </c>
       <c r="G22" s="6">
-        <v>46.1908032149476</v>
+        <v>46.3487971513032</v>
       </c>
       <c r="H22" t="s" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I22" s="9"/>
     </row>
@@ -2477,25 +2473,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s" s="7">
         <v>95</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="D23" t="s" s="7">
         <v>96</v>
-      </c>
-      <c r="D23" t="s" s="7">
-        <v>97</v>
       </c>
       <c r="E23" t="s" s="7">
         <v>53</v>
       </c>
       <c r="F23" s="6">
-        <v>54.8161850181464</v>
+        <v>54.4554056851124</v>
       </c>
       <c r="G23" s="6">
-        <v>46.2419583052802</v>
+        <v>45.3504916916749</v>
       </c>
       <c r="H23" t="s" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -2504,52 +2500,52 @@
         <v>23</v>
       </c>
       <c r="B24" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s" s="7">
         <v>99</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="D24" t="s" s="7">
         <v>100</v>
       </c>
-      <c r="D24" t="s" s="7">
+      <c r="E24" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="F24" s="6">
+        <v>54.8585452930361</v>
+      </c>
+      <c r="G24" s="6">
+        <v>45.4347042976376</v>
+      </c>
+      <c r="H24" t="s" s="7">
         <v>101</v>
       </c>
-      <c r="E24" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F24" s="6">
-        <v>54.360190028547</v>
-      </c>
-      <c r="G24" s="6">
-        <v>45.2621151656316</v>
-      </c>
-      <c r="H24" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" t="s" s="7">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s" s="7">
         <v>103</v>
       </c>
-      <c r="C25" t="s" s="7">
+      <c r="D25" t="s" s="7">
         <v>104</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>105</v>
       </c>
       <c r="E25" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F25" s="6">
-        <v>54.8183658816924</v>
+        <v>54.3140103737664</v>
       </c>
       <c r="G25" s="6">
-        <v>45.3951527327697</v>
+        <v>43.3569467619629</v>
       </c>
       <c r="H25" t="s" s="7">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="I25" s="8"/>
     </row>
@@ -2558,25 +2554,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s" s="7">
         <v>107</v>
-      </c>
-      <c r="C26" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="D26" t="s" s="7">
-        <v>109</v>
       </c>
       <c r="E26" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F26" s="6">
-        <v>54.3068703745134</v>
+        <v>54.3194172916182</v>
       </c>
       <c r="G26" s="6">
-        <v>43.3379627913633</v>
+        <v>44.3526685789793</v>
       </c>
       <c r="H26" t="s" s="7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I26" s="8"/>
     </row>
@@ -2585,106 +2581,106 @@
         <v>26</v>
       </c>
       <c r="B27" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s" s="7">
         <v>110</v>
-      </c>
-      <c r="C27" t="s" s="7">
-        <v>111</v>
-      </c>
-      <c r="D27" t="s" s="7">
-        <v>112</v>
       </c>
       <c r="E27" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F27" s="6">
-        <v>54.3184380597904</v>
+        <v>54.3586220803203</v>
       </c>
       <c r="G27" s="6">
-        <v>44.3333412856259</v>
+        <v>44.7514343413391</v>
       </c>
       <c r="H27" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I27" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s" s="7">
         <v>113</v>
       </c>
-      <c r="C28" t="s" s="7">
+      <c r="D28" t="s" s="7">
         <v>114</v>
-      </c>
-      <c r="D28" t="s" s="7">
-        <v>115</v>
       </c>
       <c r="E28" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F28" s="6">
-        <v>54.3576084097104</v>
+        <v>54.3299483958658</v>
       </c>
       <c r="G28" s="6">
-        <v>44.7448565215266</v>
+        <v>44.8288716455688</v>
       </c>
       <c r="H28" t="s" s="7">
-        <v>116</v>
-      </c>
-      <c r="I28" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s" s="7">
         <v>117</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="E29" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="F29" s="6">
+        <v>54.2699869124462</v>
+      </c>
+      <c r="G29" s="6">
+        <v>44.9386896278453</v>
+      </c>
+      <c r="H29" t="s" s="7">
         <v>118</v>
       </c>
-      <c r="D29" t="s" s="7">
-        <v>119</v>
-      </c>
-      <c r="E29" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F29" s="6">
-        <v>54.3351439587622</v>
-      </c>
-      <c r="G29" s="6">
-        <v>44.8225762099421</v>
-      </c>
-      <c r="H29" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" t="s" s="7">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s" s="7">
         <v>120</v>
       </c>
-      <c r="C30" t="s" s="7">
+      <c r="D30" t="s" s="7">
         <v>121</v>
-      </c>
-      <c r="D30" t="s" s="7">
-        <v>122</v>
       </c>
       <c r="E30" t="s" s="7">
         <v>53</v>
       </c>
       <c r="F30" s="6">
-        <v>54.3073973898478</v>
+        <v>54.2300856670146</v>
       </c>
       <c r="G30" s="6">
-        <v>44.8832799643671</v>
+        <v>45.0257803014249</v>
       </c>
       <c r="H30" t="s" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I30" s="9"/>
     </row>
@@ -2693,52 +2689,52 @@
         <v>30</v>
       </c>
       <c r="B31" t="s" s="7">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s" s="7">
         <v>124</v>
       </c>
-      <c r="C31" t="s" s="7">
+      <c r="D31" t="s" s="7">
         <v>125</v>
       </c>
-      <c r="D31" t="s" s="7">
+      <c r="E31" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="F31" s="6">
+        <v>54.2464573514198</v>
+      </c>
+      <c r="G31" s="6">
+        <v>45.1959155197748</v>
+      </c>
+      <c r="H31" t="s" s="7">
         <v>126</v>
       </c>
-      <c r="E31" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F31" s="6">
-        <v>54.2322921774264</v>
-      </c>
-      <c r="G31" s="6">
-        <v>45.0129486769828</v>
-      </c>
-      <c r="H31" t="s" s="7">
-        <v>127</v>
-      </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" t="s" s="7">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s" s="7">
         <v>128</v>
       </c>
-      <c r="C32" t="s" s="7">
+      <c r="D32" t="s" s="7">
         <v>129</v>
       </c>
-      <c r="D32" t="s" s="7">
+      <c r="E32" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="F32" s="6">
+        <v>54.2328832208351</v>
+      </c>
+      <c r="G32" s="6">
+        <v>45.2692578430778</v>
+      </c>
+      <c r="H32" t="s" s="7">
         <v>130</v>
-      </c>
-      <c r="E32" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="F32" s="6">
-        <v>54.2458790699365</v>
-      </c>
-      <c r="G32" s="6">
-        <v>45.1870347708852</v>
-      </c>
-      <c r="H32" t="s" s="7">
-        <v>131</v>
       </c>
       <c r="I32" s="8"/>
     </row>
@@ -2747,25 +2743,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s" s="7">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s" s="7">
         <v>132</v>
       </c>
-      <c r="C33" t="s" s="7">
+      <c r="D33" t="s" s="7">
         <v>133</v>
       </c>
-      <c r="D33" t="s" s="7">
-        <v>134</v>
-      </c>
       <c r="E33" t="s" s="7">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F33" s="6">
-        <v>54.2345171658797</v>
+        <v>54.2193328126578</v>
       </c>
       <c r="G33" s="6">
-        <v>45.266986057201</v>
+        <v>45.2876505936275</v>
       </c>
       <c r="H33" t="s" s="7">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="I33" s="8"/>
     </row>
@@ -2774,79 +2770,79 @@
         <v>33</v>
       </c>
       <c r="B34" t="s" s="7">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s" s="7">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s" s="7">
         <v>136</v>
       </c>
-      <c r="C34" t="s" s="7">
+      <c r="E34" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6">
+        <v>53.969193798433</v>
+      </c>
+      <c r="G34" s="6">
+        <v>43.0003189405668</v>
+      </c>
+      <c r="H34" t="s" s="7">
         <v>137</v>
       </c>
-      <c r="D34" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="E34" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F34" s="6">
-        <v>54.2196061840961</v>
-      </c>
-      <c r="G34" s="6">
-        <v>45.2871133536487</v>
-      </c>
-      <c r="H34" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I34" s="8"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" t="s" s="7">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s" s="7">
         <v>139</v>
       </c>
-      <c r="C35" t="s" s="7">
+      <c r="D35" t="s" s="7">
         <v>140</v>
       </c>
-      <c r="D35" t="s" s="7">
-        <v>141</v>
-      </c>
       <c r="E35" t="s" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F35" s="6">
-        <v>53.9669608991093</v>
+        <v>54.0912486439916</v>
       </c>
       <c r="G35" s="6">
-        <v>43.018393680492</v>
+        <v>42.8808293427119</v>
       </c>
       <c r="H35" t="s" s="7">
-        <v>142</v>
-      </c>
-      <c r="I35" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" t="s" s="7">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s" s="7">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s" s="7">
         <v>143</v>
-      </c>
-      <c r="C36" t="s" s="7">
-        <v>144</v>
-      </c>
-      <c r="D36" t="s" s="7">
-        <v>145</v>
       </c>
       <c r="E36" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F36" s="6">
-        <v>54.0906638878583</v>
+        <v>54.6171466138276</v>
       </c>
       <c r="G36" s="6">
-        <v>42.8803779334216</v>
+        <v>43.844153255597</v>
       </c>
       <c r="H36" t="s" s="7">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I36" s="8"/>
     </row>
@@ -2855,25 +2851,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s" s="7">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s" s="7">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s" s="7">
         <v>146</v>
-      </c>
-      <c r="C37" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="D37" t="s" s="7">
-        <v>148</v>
       </c>
       <c r="E37" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F37" s="6">
-        <v>54.5970896414096</v>
+        <v>54.5379188458336</v>
       </c>
       <c r="G37" s="6">
-        <v>43.8004829138899</v>
+        <v>43.4094637338073</v>
       </c>
       <c r="H37" t="s" s="7">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="I37" s="8"/>
     </row>
@@ -2882,25 +2878,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s" s="7">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s" s="7">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s" s="7">
         <v>149</v>
-      </c>
-      <c r="C38" t="s" s="7">
-        <v>150</v>
-      </c>
-      <c r="D38" t="s" s="7">
-        <v>151</v>
       </c>
       <c r="E38" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F38" s="6">
-        <v>54.5324505597428</v>
+        <v>54.5912085515812</v>
       </c>
       <c r="G38" s="6">
-        <v>43.4127856940411</v>
+        <v>43.1867934912578</v>
       </c>
       <c r="H38" t="s" s="7">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I38" s="8"/>
     </row>
@@ -2909,25 +2905,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s" s="7">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s" s="7">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s" s="7">
         <v>152</v>
-      </c>
-      <c r="C39" t="s" s="7">
-        <v>153</v>
-      </c>
-      <c r="D39" t="s" s="7">
-        <v>154</v>
       </c>
       <c r="E39" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F39" s="6">
-        <v>54.5901119834903</v>
+        <v>54.0056577994886</v>
       </c>
       <c r="G39" s="6">
-        <v>43.1849910468241</v>
+        <v>44.7704555243385</v>
       </c>
       <c r="H39" t="s" s="7">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="I39" s="8"/>
     </row>
@@ -2936,25 +2932,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s" s="7">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s" s="7">
         <v>155</v>
       </c>
-      <c r="C40" t="s" s="7">
+      <c r="D40" t="s" s="7">
         <v>156</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>157</v>
       </c>
       <c r="E40" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F40" s="6">
-        <v>54.0158192296821</v>
+        <v>53.9627602385524</v>
       </c>
       <c r="G40" s="6">
-        <v>44.8104526251929</v>
+        <v>44.3294574469457</v>
       </c>
       <c r="H40" t="s" s="7">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I40" s="8"/>
     </row>
@@ -2963,79 +2959,79 @@
         <v>40</v>
       </c>
       <c r="B41" t="s" s="7">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s" s="7">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s" s="7">
         <v>159</v>
       </c>
-      <c r="C41" t="s" s="7">
+      <c r="E41" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="F41" s="6">
+        <v>53.9947792680077</v>
+      </c>
+      <c r="G41" s="6">
+        <v>44.0915561727014</v>
+      </c>
+      <c r="H41" t="s" s="7">
         <v>160</v>
       </c>
-      <c r="D41" t="s" s="7">
-        <v>161</v>
-      </c>
-      <c r="E41" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F41" s="6">
-        <v>53.9634688139479</v>
-      </c>
-      <c r="G41" s="6">
-        <v>44.3336631507055</v>
-      </c>
-      <c r="H41" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="I41" s="8"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" t="s" s="7">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s" s="7">
         <v>162</v>
       </c>
-      <c r="C42" t="s" s="7">
+      <c r="D42" t="s" s="7">
         <v>163</v>
-      </c>
-      <c r="D42" t="s" s="7">
-        <v>164</v>
       </c>
       <c r="E42" t="s" s="7">
         <v>53</v>
       </c>
       <c r="F42" s="6">
-        <v>53.9827981146988</v>
+        <v>54.0162121143905</v>
       </c>
       <c r="G42" s="6">
-        <v>44.1775371283666</v>
+        <v>43.906516802598</v>
       </c>
       <c r="H42" t="s" s="7">
-        <v>165</v>
-      </c>
-      <c r="I42" s="9"/>
+        <v>164</v>
+      </c>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" t="s" s="7">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s" s="7">
         <v>166</v>
       </c>
-      <c r="C43" t="s" s="7">
+      <c r="D43" t="s" s="7">
         <v>167</v>
       </c>
-      <c r="D43" t="s" s="7">
+      <c r="E43" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="F43" s="6">
+        <v>54.0445206409116</v>
+      </c>
+      <c r="G43" s="6">
+        <v>43.3796550482879</v>
+      </c>
+      <c r="H43" t="s" s="7">
         <v>168</v>
-      </c>
-      <c r="E43" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F43" s="6">
-        <v>54.0360840873964</v>
-      </c>
-      <c r="G43" s="6">
-        <v>43.9488841742649</v>
-      </c>
-      <c r="H43" t="s" s="7">
-        <v>169</v>
       </c>
       <c r="I43" s="8"/>
     </row>
@@ -3044,25 +3040,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s" s="7">
+        <v>169</v>
+      </c>
+      <c r="C44" t="s" s="7">
         <v>170</v>
       </c>
-      <c r="C44" t="s" s="7">
+      <c r="D44" t="s" s="7">
         <v>171</v>
-      </c>
-      <c r="D44" t="s" s="7">
-        <v>172</v>
       </c>
       <c r="E44" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F44" s="6">
-        <v>54.0483594610592</v>
+        <v>54.2426115869529</v>
       </c>
       <c r="G44" s="6">
-        <v>43.3932162970673</v>
+        <v>46.0604907721643</v>
       </c>
       <c r="H44" t="s" s="7">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="I44" s="8"/>
     </row>
@@ -3071,22 +3067,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s" s="7">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s" s="7">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s" s="7">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E45" t="s" s="7">
         <v>33</v>
       </c>
       <c r="F45" s="6">
-        <v>54.2406509728624</v>
+        <v>54.4032138791922</v>
       </c>
       <c r="G45" s="6">
-        <v>46.0581733435758</v>
+        <v>46.2952377051476</v>
       </c>
       <c r="H45" t="s" s="7">
         <v>41</v>
@@ -3098,25 +3094,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s" s="7">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s" s="7">
         <v>176</v>
       </c>
       <c r="E46" t="s" s="7">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F46" s="6">
-        <v>54.4109245748913</v>
+        <v>54.0752165874491</v>
       </c>
       <c r="G46" s="6">
-        <v>46.3050224036343</v>
+        <v>45.0135908176197</v>
       </c>
       <c r="H46" t="s" s="7">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="I46" s="8"/>
     </row>
@@ -3125,191 +3121,191 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="7">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s" s="7">
         <v>179</v>
       </c>
-      <c r="C47" t="s" s="7">
+      <c r="D47" t="s" s="7">
         <v>180</v>
       </c>
-      <c r="D47" t="s" s="7">
-        <v>181</v>
-      </c>
       <c r="E47" t="s" s="7">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F47" s="6">
-        <v>54.0894024486104</v>
+        <v>54.0693213575245</v>
       </c>
       <c r="G47" s="6">
-        <v>45.0972558707362</v>
+        <v>45.4070972761378</v>
       </c>
       <c r="H47" t="s" s="7">
-        <v>182</v>
-      </c>
-      <c r="I47" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" t="s" s="7">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s" s="7">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s" s="7">
         <v>183</v>
       </c>
-      <c r="C48" t="s" s="7">
-        <v>184</v>
-      </c>
-      <c r="D48" t="s" s="7">
-        <v>185</v>
-      </c>
       <c r="E48" t="s" s="7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F48" s="6">
-        <v>54.1024438636998</v>
+        <v>53.975219404499</v>
       </c>
       <c r="G48" s="6">
-        <v>45.3267671317224</v>
+        <v>45.3720990796053</v>
       </c>
       <c r="H48" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="I48" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" t="s" s="7">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s" s="7">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s" s="7">
         <v>186</v>
       </c>
-      <c r="C49" t="s" s="7">
-        <v>187</v>
-      </c>
-      <c r="D49" t="s" s="7">
-        <v>188</v>
-      </c>
       <c r="E49" t="s" s="7">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F49" s="6">
-        <v>54.0522736803332</v>
+        <v>54.9032407917698</v>
       </c>
       <c r="G49" s="6">
-        <v>45.4359437674646</v>
+        <v>46.2154151648643</v>
       </c>
       <c r="H49" t="s" s="7">
         <v>41</v>
       </c>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" ht="20.05" customHeight="1">
+    <row r="50" ht="32.05" customHeight="1">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" t="s" s="7">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s" s="7">
+        <v>188</v>
+      </c>
+      <c r="D50" t="s" s="7">
         <v>189</v>
       </c>
-      <c r="C50" t="s" s="7">
+      <c r="E50" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="F50" s="6">
+        <v>54.243759725115</v>
+      </c>
+      <c r="G50" s="6">
+        <v>45.1565442169771</v>
+      </c>
+      <c r="H50" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s" s="9">
         <v>190</v>
       </c>
-      <c r="D50" t="s" s="7">
-        <v>191</v>
-      </c>
-      <c r="E50" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F50" s="6">
-        <v>54.8962169884646</v>
-      </c>
-      <c r="G50" s="6">
-        <v>46.2218095511558</v>
-      </c>
-      <c r="H50" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I50" s="8"/>
     </row>
     <row r="51" ht="32.05" customHeight="1">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" t="s" s="7">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s" s="7">
         <v>192</v>
       </c>
-      <c r="C51" t="s" s="7">
+      <c r="D51" t="s" s="7">
         <v>193</v>
-      </c>
-      <c r="D51" t="s" s="7">
-        <v>194</v>
       </c>
       <c r="E51" t="s" s="7">
         <v>53</v>
       </c>
       <c r="F51" s="6">
-        <v>54.2548561732365</v>
+        <v>54.1862582762496</v>
       </c>
       <c r="G51" s="6">
-        <v>44.9568248452346</v>
+        <v>45.2152255858048</v>
       </c>
       <c r="H51" t="s" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I51" t="s" s="9">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" ht="32.05" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" t="s" s="7">
+        <v>194</v>
+      </c>
+      <c r="C52" t="s" s="7">
+        <v>195</v>
+      </c>
+      <c r="D52" t="s" s="7">
         <v>196</v>
       </c>
-      <c r="C52" t="s" s="7">
+      <c r="E52" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="F52" s="6">
+        <v>54.1696704940571</v>
+      </c>
+      <c r="G52" s="6">
+        <v>45.1883731265029</v>
+      </c>
+      <c r="H52" t="s" s="7">
         <v>197</v>
       </c>
-      <c r="D52" t="s" s="7">
-        <v>198</v>
-      </c>
-      <c r="E52" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F52" s="6">
-        <v>54.1861491035445</v>
-      </c>
-      <c r="G52" s="6">
-        <v>45.214231079978</v>
-      </c>
-      <c r="H52" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I52" t="s" s="9">
-        <v>195</v>
-      </c>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" t="s" s="7">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s" s="7">
         <v>199</v>
       </c>
-      <c r="C53" t="s" s="7">
+      <c r="D53" t="s" s="7">
         <v>200</v>
       </c>
-      <c r="D53" t="s" s="7">
+      <c r="E53" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="F53" s="6">
+        <v>54.2327135988852</v>
+      </c>
+      <c r="G53" s="6">
+        <v>45.152141119049</v>
+      </c>
+      <c r="H53" t="s" s="7">
         <v>201</v>
-      </c>
-      <c r="E53" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="F53" s="6">
-        <v>54.1696516169525</v>
-      </c>
-      <c r="G53" s="6">
-        <v>45.1881051958006</v>
-      </c>
-      <c r="H53" t="s" s="7">
-        <v>202</v>
       </c>
       <c r="I53" s="9"/>
     </row>
@@ -3318,54 +3314,27 @@
         <v>53</v>
       </c>
       <c r="B54" t="s" s="7">
+        <v>202</v>
+      </c>
+      <c r="C54" t="s" s="7">
         <v>203</v>
       </c>
-      <c r="C54" t="s" s="7">
+      <c r="D54" t="s" s="7">
         <v>204</v>
       </c>
-      <c r="D54" t="s" s="7">
-        <v>205</v>
-      </c>
       <c r="E54" t="s" s="7">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F54" s="6">
-        <v>54.233185</v>
+        <v>54.1804331735226</v>
       </c>
       <c r="G54" s="6">
-        <v>45.151948</v>
+        <v>45.1928758273581</v>
       </c>
       <c r="H54" t="s" s="7">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="6">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s" s="7">
-        <v>207</v>
-      </c>
-      <c r="C55" t="s" s="7">
-        <v>208</v>
-      </c>
-      <c r="D55" t="s" s="7">
-        <v>209</v>
-      </c>
-      <c r="E55" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="F55" s="6">
-        <v>54.180408</v>
-      </c>
-      <c r="G55" s="6">
-        <v>45.192638</v>
-      </c>
-      <c r="H55" t="s" s="7">
-        <v>206</v>
-      </c>
-      <c r="I55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/public/download/fvf/places-fvf.xlsx
+++ b/public/download/fvf/places-fvf.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
   <si>
     <t>№ п/п</t>
   </si>
@@ -19,12 +19,24 @@
     <t>Идентификатор</t>
   </si>
   <si>
-    <t>Наименование</t>
+    <t>Наименование места</t>
+  </si>
+  <si>
+    <t>Название комплекса</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Производитель</t>
   </si>
   <si>
     <t>Адрес</t>
   </si>
   <si>
+    <t>Примечание</t>
+  </si>
+  <si>
     <t>Приоритетность размещения</t>
   </si>
   <si>
@@ -37,19 +49,25 @@
     <t>ДТП, погибло, ранено</t>
   </si>
   <si>
-    <t>Примечание</t>
-  </si>
-  <si>
     <t>FVF-PLC001</t>
   </si>
   <si>
     <t>Предлагаемое место МВД 1</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0420</t>
+  </si>
+  <si>
+    <t>Кордон Про М</t>
+  </si>
+  <si>
+    <t>Семикон</t>
+  </si>
+  <si>
     <t>г. Саранск, Юго-Западное шоссе (между ул. Победа и а/д Саранск-Ключарево)</t>
   </si>
   <si>
-    <t>Приоритет 2</t>
+    <t>После Ключевского поворота (примерно посередине)</t>
   </si>
   <si>
     <t>3-0-4</t>
@@ -61,9 +79,15 @@
     <t>Предлагаемое место МВД 2</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0421</t>
+  </si>
+  <si>
     <t>Россия, Республика Мордовия, Саранск, Юго-Западное шоссе, 10</t>
   </si>
   <si>
+    <t>До Ключаревского поворота (АЗС Газнпромнефть) +/- 200м</t>
+  </si>
+  <si>
     <t>5-0-9</t>
   </si>
   <si>
@@ -73,9 +97,15 @@
     <t>Предлагаемое место МВД 3</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0422</t>
+  </si>
+  <si>
     <t>г. Саранск, ул. Севастопольская (между ул. Серова и ул. Кочкуровская)</t>
   </si>
   <si>
+    <t>Установка на место существующего комплекса (в случае демонтажа Аэль РТС)</t>
+  </si>
+  <si>
     <t>2-0-2</t>
   </si>
   <si>
@@ -85,6 +115,9 @@
     <t>Предлагаемое место МВД 4</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0423</t>
+  </si>
+  <si>
     <t>г. Саранск, ул. Севастопольская (между ул. Кочкуровская и ул. Волгоградская)</t>
   </si>
   <si>
@@ -97,7 +130,13 @@
     <t>Предлагаемое место МВД 5</t>
   </si>
   <si>
-    <t>г. Саранск, ул. Полежаева (район АЗС «Башнефть»)</t>
+    <t>КПроМ-Стац-PM0424</t>
+  </si>
+  <si>
+    <t>г. Саранск, ул. Победы (Между ЦОП и АЗС)</t>
+  </si>
+  <si>
+    <t>Между ЦОП и АЗС Ситиойл (примерно посередине)</t>
   </si>
   <si>
     <t>3-1-5</t>
@@ -109,10 +148,13 @@
     <t>Предлагаемое место МВД 6</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Россия, Республика Мордовия, Саранск, Александровское шоссе, 10</t>
   </si>
   <si>
-    <t>Приоритет 4</t>
+    <t>Нет уточняющего комментария</t>
   </si>
   <si>
     <t>FVF-PLC007</t>
@@ -121,6 +163,9 @@
     <t>Предлагаемое место МВД 7</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0425</t>
+  </si>
+  <si>
     <t>г. Саранск, ул. Косарева, 130 (район магазина «Вираж»)</t>
   </si>
   <si>
@@ -133,6 +178,9 @@
     <t>Предлагаемое место МВД 8</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0426</t>
+  </si>
+  <si>
     <t>Россия, Республика Мордовия, Саранск, Севастопольская улица, 40</t>
   </si>
   <si>
@@ -145,9 +193,15 @@
     <t>Предлагаемое место МВД 9</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0427</t>
+  </si>
+  <si>
     <t>а/д Восточный обход го Саранск (участок от а/д Саранск- Кочкурово до ул. Пионерская п.Ялга)</t>
   </si>
   <si>
+    <t>На месте размещения Автодории (два варианта на выбор - возможно задействовать оба)</t>
+  </si>
+  <si>
     <t>5-0-12</t>
   </si>
   <si>
@@ -157,9 +211,15 @@
     <t>Предлагаемое место МВД 10</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0428</t>
+  </si>
+  <si>
     <t>а/д Восточный обход го Саранск (участок от а/д Саранск Б. Березники до а/д Саранск-Кочкурово)</t>
   </si>
   <si>
+    <t>Любое место от а/д Саранск Б. Березники до а/д Саранск-Кочкурово (возможно в районе перехватывающей парковки)</t>
+  </si>
+  <si>
     <t>9-0-22</t>
   </si>
   <si>
@@ -169,18 +229,18 @@
     <t>Предлагаемое место МВД 11</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0406</t>
+  </si>
+  <si>
     <t>а/д Берсеневка- Пензятка, 5-7 км</t>
   </si>
   <si>
-    <t>Приоритет 1</t>
+    <t>Между постом ГИБДД и поворотом на с. Татарская Свербейка (установить в верхней точке “оврага”)</t>
   </si>
   <si>
     <t>2-0-3</t>
   </si>
   <si>
-    <t>Местоположение скорректировано (согласовать местоположение)</t>
-  </si>
-  <si>
     <t>FVF-PLC013</t>
   </si>
   <si>
@@ -190,9 +250,6 @@
     <t>а/д Р178 (г.Саранск-с.Сурское-г.Ульяновск), 21-22 км</t>
   </si>
   <si>
-    <t>Приоритет 3</t>
-  </si>
-  <si>
     <t>2-1-1</t>
   </si>
   <si>
@@ -202,9 +259,15 @@
     <t>Предлагаемое место МВД 14</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0407</t>
+  </si>
+  <si>
     <t>а/д Р178 (г.Саранск-с.Сурское-г.Ульяновск), 32-34 км</t>
   </si>
   <si>
+    <t>Поворот на Б. Ремезенки +/- 1000м</t>
+  </si>
+  <si>
     <t>8-1-15</t>
   </si>
   <si>
@@ -244,9 +307,15 @@
     <t>Предлагаемое место МВД 18</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0408</t>
+  </si>
+  <si>
     <t>а/д Р158 (Н.Новгород-Саратов), 270-273 км</t>
   </si>
   <si>
+    <t>Ориентировочно перекресток на с. Лямбирь (ул. Спортивная) +/- 500м</t>
+  </si>
+  <si>
     <t>6-1-9</t>
   </si>
   <si>
@@ -265,9 +334,15 @@
     <t>Предлагаемое место МВД 20</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0409</t>
+  </si>
+  <si>
     <t>а/д Комсомольский - Атяшево - Ардатов, 8-15 км</t>
   </si>
   <si>
+    <t>На месте размещения Автодории (с. Большие Манадыши)</t>
+  </si>
+  <si>
     <t>5-1-6</t>
   </si>
   <si>
@@ -277,9 +352,15 @@
     <t>Предлагаемое место МВД 21</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0410</t>
+  </si>
+  <si>
     <t>а/д Комсомольский - Атяшево - Ардатов, 20-37 км</t>
   </si>
   <si>
+    <t>Между с. Алашеевка и поворотом на с. Селищи (выбрать прямой участок)</t>
+  </si>
+  <si>
     <t>12-4-9</t>
   </si>
   <si>
@@ -289,9 +370,15 @@
     <t>Предлагаемое место МВД 22</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0411</t>
+  </si>
+  <si>
     <t>а/д Комсомольский - Атяшево - Ардатов, 64-77 км</t>
   </si>
   <si>
+    <t>После знака с. Баево 50 м (со стороны Чувашии)</t>
+  </si>
+  <si>
     <t>16-4-16</t>
   </si>
   <si>
@@ -301,9 +388,15 @@
     <t>Предлагаемое место МВД 23</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0412</t>
+  </si>
+  <si>
     <t>а/д Саранск-Ромоданово-Ичалки-Б.Игнатово, 25-40 км</t>
   </si>
   <si>
+    <t>От АЗС Лукойл +200м в сторону  c. Ичалки</t>
+  </si>
+  <si>
     <t>5-2-10</t>
   </si>
   <si>
@@ -364,9 +457,15 @@
     <t>Предлагаемое место МВД 29</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0413</t>
+  </si>
+  <si>
     <t>а/д М-5 Урал Москва - Рязань - Пенза - Самара -Уфа - Челябинск, подъезд к г. Саранск, 168-172 км</t>
   </si>
   <si>
+    <t>Между первым заездом на с. Болотниково от г. Саранск и прудом</t>
+  </si>
+  <si>
     <t>5-3-5</t>
   </si>
   <si>
@@ -376,9 +475,15 @@
     <t>Предлагаемое место МВД 30</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0414</t>
+  </si>
+  <si>
     <t>а/д М-5 Урал Москва - Рязань - Пенза - Самара -Уфа - Челябинск, подъезд к г. Саранск, 176-177 км</t>
   </si>
   <si>
+    <t>Напротив АЗС Башнефть (допустимо отступить в сторону г. Саранск примерно на 300-500м)</t>
+  </si>
+  <si>
     <t>9-2-12</t>
   </si>
   <si>
@@ -421,9 +526,15 @@
     <t>Предлагаемое место МВД 34</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0429</t>
+  </si>
+  <si>
     <t>а/д М-5 Урал Москва - Рязань - Пенза - Самара -Уфа - Челябинск, 456-459 км</t>
   </si>
   <si>
+    <t>На месте размещения Автодории (перед выездом из с. Новые выселки)</t>
+  </si>
+  <si>
     <t>8-3-15</t>
   </si>
   <si>
@@ -490,9 +601,15 @@
     <t>Предлагаемое место МВД 41</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0415</t>
+  </si>
+  <si>
     <t>а/д Рузаевка-Ковылкино-Торбеево, 56-62 км</t>
   </si>
   <si>
+    <t>Поворот на Паево +/-500м (После Адашево в сторону Ковылкино - между Адашево и Ямщина)</t>
+  </si>
+  <si>
     <t>5-5-9</t>
   </si>
   <si>
@@ -502,9 +619,15 @@
     <t>Предлагаемое место МВД 42</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0416</t>
+  </si>
+  <si>
     <t>а/д Рузаевка-Ковылкино-Торбеево, 70-78 км</t>
   </si>
   <si>
+    <t>Между поворотом на с. Казенный Майдан и поворотом на с. Кочелаево</t>
+  </si>
+  <si>
     <t>10-0-11</t>
   </si>
   <si>
@@ -541,9 +664,15 @@
     <t>Предлагаемое место МВД 46</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0417</t>
+  </si>
+  <si>
     <t>а/д Саранск-Рузаевка, 15-19 км</t>
   </si>
   <si>
+    <t>До поворота на кирзаводской карьер 200-500 м со стороны Саранска</t>
+  </si>
+  <si>
     <t>7-0-16</t>
   </si>
   <si>
@@ -553,9 +682,15 @@
     <t>Предлагаемое место МВД 47</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0430</t>
+  </si>
+  <si>
     <t>а/д Саранск-Кочкурово, 10-19 км</t>
   </si>
   <si>
+    <t>Между Танеевкой и поворотом на Тавлу +-300м (выбрать прямой участок)</t>
+  </si>
+  <si>
     <t>FVF-PLC048</t>
   </si>
   <si>
@@ -580,10 +715,13 @@
     <t>Предлагаемое место МВД 50</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0418</t>
+  </si>
+  <si>
     <t>а/д подъезд к г. Саранску от а/д М-5 Урал</t>
   </si>
   <si>
-    <t>Добавлено новое размещение (согласовать местоположение)</t>
+    <t>Между АЗС Лукойл и стоянкой большегрузов (ориентир - поворот на рыбную базу +/- 500м)</t>
   </si>
   <si>
     <t>FVF-PLC051</t>
@@ -592,7 +730,13 @@
     <t>Предлагаемое место МВД 51</t>
   </si>
   <si>
+    <t>КПроМ-Стац-PM0419</t>
+  </si>
+  <si>
     <t>Волгоградская - Короленко Саранск</t>
+  </si>
+  <si>
+    <t>Установка комплекса на перекрестке Волгоградская - Короленко</t>
   </si>
   <si>
     <t>FVF-PLC052</t>
@@ -635,7 +779,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -647,18 +791,13 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,12 +807,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -737,36 +870,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +915,6 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -805,10 +931,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="5E5E5E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="D5D5D5"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -985,14 +1111,11 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="000000"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1001,7 +1124,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1016,19 +1139,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Helvetica Neue Medium"/>
+            <a:ea typeface="Helvetica Neue Medium"/>
+            <a:cs typeface="Helvetica Neue Medium"/>
+            <a:sym typeface="Helvetica Neue Medium"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1276,12 +1399,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1572,7 +1695,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1853,7 +1976,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1861,13 +1984,15 @@
   <cols>
     <col min="1" max="1" width="6.35156" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="85.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1016" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="96.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26" style="1" customWidth="1"/>
+    <col min="10" max="12" width="16.8516" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1898,1443 +2023,1973 @@
       <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>54.2003214215162</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45.1206443981169</v>
+      </c>
+      <c r="L2" t="s" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>54.1807475224665</v>
+      </c>
+      <c r="K3" s="5">
+        <v>45.1310084537504</v>
+      </c>
+      <c r="L3" t="s" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>54.1715663256906</v>
+      </c>
+      <c r="K4" s="5">
+        <v>45.2084279046628</v>
+      </c>
+      <c r="L4" t="s" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>54.181919863271</v>
+      </c>
+      <c r="K5" s="5">
+        <v>45.2213346944423</v>
+      </c>
+      <c r="L5" t="s" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s" s="6">
+        <v>41</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>54.2071488698357</v>
+      </c>
+      <c r="K6" s="5">
+        <v>45.1315674206838</v>
+      </c>
+      <c r="L6" t="s" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5">
+        <v>54.2276060375678</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45.2163497844085</v>
+      </c>
+      <c r="L7" t="s" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>54.2104064183889</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45.268730899475</v>
+      </c>
+      <c r="L8" t="s" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>54.1892030865251</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45.2228949547804</v>
+      </c>
+      <c r="L9" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="B10" t="s" s="6">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s" s="6">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s" s="6">
+        <v>62</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>54.1446977685109</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45.1892241856683</v>
+      </c>
+      <c r="L10" t="s" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="B11" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s" s="6">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s" s="6">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s" s="6">
+        <v>68</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>54.1783849545214</v>
+      </c>
+      <c r="K11" s="5">
+        <v>45.2788743397818</v>
+      </c>
+      <c r="L11" t="s" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="B12" t="s" s="6">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>54.2254508588192</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45.0323709736717</v>
+      </c>
+      <c r="L12" t="s" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
-        <v>54.2003214215162</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45.1206443981169</v>
-      </c>
-      <c r="H2" t="s" s="4">
+      <c r="B13" t="s" s="6">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s" s="6">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>54.2992361978256</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45.4316091858888</v>
+      </c>
+      <c r="L13" t="s" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="6">
+      <c r="B14" t="s" s="6">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s" s="6">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s" s="6">
+        <v>84</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>54.3490342608452</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45.5703374287108</v>
+      </c>
+      <c r="L14" t="s" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s" s="6">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" t="s" s="6">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5">
+        <v>54.3842000367184</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45.7447194048155</v>
+      </c>
+      <c r="L15" t="s" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s" s="6">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" t="s" s="6">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5">
+        <v>54.4136127126742</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45.9842103373145</v>
+      </c>
+      <c r="L16" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="6">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s" s="6">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" t="s" s="6">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I17" s="5">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5">
+        <v>54.4110970484187</v>
+      </c>
+      <c r="K17" s="5">
+        <v>46.437306224884</v>
+      </c>
+      <c r="L17" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="6">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s" s="6">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s" s="6">
+        <v>100</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>54.2916492281751</v>
+      </c>
+      <c r="K18" s="5">
+        <v>45.0856961395315</v>
+      </c>
+      <c r="L18" t="s" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="6">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s" s="6">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" t="s" s="6">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4</v>
+      </c>
+      <c r="J19" s="5">
+        <v>54.0033479645949</v>
+      </c>
+      <c r="K19" s="5">
+        <v>44.8987345634458</v>
+      </c>
+      <c r="L19" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="6">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s" s="6">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s" s="6">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s" s="6">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s" s="6">
+        <v>109</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>54.5626646047316</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45.9810273968505</v>
+      </c>
+      <c r="L20" t="s" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="6">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s" s="6">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s" s="6">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s" s="6">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s" s="6">
+        <v>115</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>54.6416261458257</v>
+      </c>
+      <c r="K21" s="5">
+        <v>46.2320298640493</v>
+      </c>
+      <c r="L21" t="s" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="6">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s" s="6">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s" s="6">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s" s="6">
+        <v>120</v>
+      </c>
+      <c r="H22" t="s" s="6">
+        <v>121</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>54.8523652993666</v>
+      </c>
+      <c r="K22" s="5">
+        <v>46.3933861939667</v>
+      </c>
+      <c r="L22" t="s" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="6">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s" s="6">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s" s="6">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s" s="6">
+        <v>126</v>
+      </c>
+      <c r="H23" t="s" s="6">
+        <v>127</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>54.428457319996</v>
+      </c>
+      <c r="K23" s="5">
+        <v>45.3160950432675</v>
+      </c>
+      <c r="L23" t="s" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="6">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" t="s" s="6">
+        <v>131</v>
+      </c>
+      <c r="H24" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I24" s="5">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5">
+        <v>54.8585452930361</v>
+      </c>
+      <c r="K24" s="5">
+        <v>45.4347042976376</v>
+      </c>
+      <c r="L24" t="s" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="6">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" t="s" s="6">
+        <v>135</v>
+      </c>
+      <c r="H25" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5">
+        <v>54.3140103737664</v>
+      </c>
+      <c r="K25" s="5">
+        <v>43.3569467619629</v>
+      </c>
+      <c r="L25" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="6">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" t="s" s="6">
+        <v>138</v>
+      </c>
+      <c r="H26" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I26" s="5">
+        <v>4</v>
+      </c>
+      <c r="J26" s="5">
+        <v>54.3194172916182</v>
+      </c>
+      <c r="K26" s="5">
+        <v>44.3526685789793</v>
+      </c>
+      <c r="L26" t="s" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="6">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" t="s" s="6">
+        <v>141</v>
+      </c>
+      <c r="H27" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I27" s="5">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5">
+        <v>54.3586220803203</v>
+      </c>
+      <c r="K27" s="5">
+        <v>44.7514343413391</v>
+      </c>
+      <c r="L27" t="s" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="6">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" t="s" s="6">
+        <v>145</v>
+      </c>
+      <c r="H28" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I28" s="5">
+        <v>4</v>
+      </c>
+      <c r="J28" s="5">
+        <v>54.3299483958658</v>
+      </c>
+      <c r="K28" s="5">
+        <v>44.8288716455688</v>
+      </c>
+      <c r="L28" t="s" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="6">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s" s="6">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s" s="6">
+        <v>148</v>
+      </c>
+      <c r="E29" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s" s="6">
+        <v>149</v>
+      </c>
+      <c r="H29" t="s" s="6">
+        <v>150</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>54.2696352487194</v>
+      </c>
+      <c r="K29" s="5">
+        <v>44.9388398315497</v>
+      </c>
+      <c r="L29" t="s" s="6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="6">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s" s="6">
+        <v>153</v>
+      </c>
+      <c r="D30" t="s" s="6">
+        <v>154</v>
+      </c>
+      <c r="E30" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s" s="6">
+        <v>155</v>
+      </c>
+      <c r="H30" t="s" s="6">
+        <v>156</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>54.2300840377705</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45.0302144776237</v>
+      </c>
+      <c r="L30" t="s" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="6">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s" s="6">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" t="s" s="6">
+        <v>160</v>
+      </c>
+      <c r="H31" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I31" s="5">
+        <v>3</v>
+      </c>
+      <c r="J31" s="5">
+        <v>54.2464573514198</v>
+      </c>
+      <c r="K31" s="5">
+        <v>45.1959155197748</v>
+      </c>
+      <c r="L31" t="s" s="6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s" s="6">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>163</v>
+      </c>
+      <c r="D32" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" t="s" s="6">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I32" s="5">
+        <v>3</v>
+      </c>
+      <c r="J32" s="5">
+        <v>54.2328832208351</v>
+      </c>
+      <c r="K32" s="5">
+        <v>45.2692578430778</v>
+      </c>
+      <c r="L32" t="s" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="6">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" t="s" s="6">
+        <v>168</v>
+      </c>
+      <c r="H33" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I33" s="5">
+        <v>4</v>
+      </c>
+      <c r="J33" s="5">
+        <v>54.2193328126578</v>
+      </c>
+      <c r="K33" s="5">
+        <v>45.2876505936275</v>
+      </c>
+      <c r="L33" t="s" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s" s="6">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s" s="6">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s" s="6">
+        <v>171</v>
+      </c>
+      <c r="E34" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s" s="6">
+        <v>172</v>
+      </c>
+      <c r="H34" t="s" s="6">
+        <v>173</v>
+      </c>
+      <c r="I34" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="7">
+      <c r="J34" s="5">
+        <v>53.969193798433</v>
+      </c>
+      <c r="K34" s="5">
+        <v>43.0003189405668</v>
+      </c>
+      <c r="L34" t="s" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s" s="6">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s" s="6">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="H35" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I35" s="5">
+        <v>4</v>
+      </c>
+      <c r="J35" s="5">
+        <v>54.0912486439916</v>
+      </c>
+      <c r="K35" s="5">
+        <v>42.8808293427119</v>
+      </c>
+      <c r="L35" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="6">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s" s="6">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" t="s" s="6">
+        <v>180</v>
+      </c>
+      <c r="H36" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I36" s="5">
+        <v>4</v>
+      </c>
+      <c r="J36" s="5">
+        <v>54.6171466138276</v>
+      </c>
+      <c r="K36" s="5">
+        <v>43.844153255597</v>
+      </c>
+      <c r="L36" t="s" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="6">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s" s="6">
+        <v>182</v>
+      </c>
+      <c r="D37" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" t="s" s="6">
+        <v>183</v>
+      </c>
+      <c r="H37" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I37" s="5">
+        <v>4</v>
+      </c>
+      <c r="J37" s="5">
+        <v>54.5379188458336</v>
+      </c>
+      <c r="K37" s="5">
+        <v>43.4094637338073</v>
+      </c>
+      <c r="L37" t="s" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="6">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s" s="6">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" t="s" s="6">
+        <v>186</v>
+      </c>
+      <c r="H38" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I38" s="5">
+        <v>4</v>
+      </c>
+      <c r="J38" s="5">
+        <v>54.5912085515812</v>
+      </c>
+      <c r="K38" s="5">
+        <v>43.1867934912578</v>
+      </c>
+      <c r="L38" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="6">
+        <v>187</v>
+      </c>
+      <c r="C39" t="s" s="6">
+        <v>188</v>
+      </c>
+      <c r="D39" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" t="s" s="6">
+        <v>189</v>
+      </c>
+      <c r="H39" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I39" s="5">
+        <v>4</v>
+      </c>
+      <c r="J39" s="5">
+        <v>54.0056577994886</v>
+      </c>
+      <c r="K39" s="5">
+        <v>44.7704555243385</v>
+      </c>
+      <c r="L39" t="s" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="6">
+        <v>191</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>192</v>
+      </c>
+      <c r="D40" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" t="s" s="6">
+        <v>193</v>
+      </c>
+      <c r="H40" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I40" s="5">
+        <v>4</v>
+      </c>
+      <c r="J40" s="5">
+        <v>53.9627602385524</v>
+      </c>
+      <c r="K40" s="5">
+        <v>44.3294574469457</v>
+      </c>
+      <c r="L40" t="s" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s" s="6">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>195</v>
+      </c>
+      <c r="D41" t="s" s="6">
+        <v>196</v>
+      </c>
+      <c r="E41" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="F41" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6">
-        <v>54.1807475224665</v>
-      </c>
-      <c r="G3" s="6">
-        <v>45.1310084537504</v>
-      </c>
-      <c r="H3" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="6">
+      <c r="G41" t="s" s="6">
+        <v>197</v>
+      </c>
+      <c r="H41" t="s" s="6">
+        <v>198</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>53.9591979418766</v>
+      </c>
+      <c r="K41" s="5">
+        <v>44.2643548062763</v>
+      </c>
+      <c r="L41" t="s" s="6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s" s="6">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>201</v>
+      </c>
+      <c r="D42" t="s" s="6">
+        <v>202</v>
+      </c>
+      <c r="E42" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s" s="6">
+        <v>203</v>
+      </c>
+      <c r="H42" t="s" s="6">
+        <v>204</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>54.0030802688958</v>
+      </c>
+      <c r="K42" s="5">
+        <v>44.0558192852029</v>
+      </c>
+      <c r="L42" t="s" s="6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s" s="6">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s" s="6">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" t="s" s="6">
+        <v>208</v>
+      </c>
+      <c r="H43" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I43" s="5">
+        <v>4</v>
+      </c>
+      <c r="J43" s="5">
+        <v>54.0445206409116</v>
+      </c>
+      <c r="K43" s="5">
+        <v>43.3796550482879</v>
+      </c>
+      <c r="L43" t="s" s="6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s" s="6">
+        <v>210</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>211</v>
+      </c>
+      <c r="D44" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" t="s" s="6">
+        <v>212</v>
+      </c>
+      <c r="H44" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I44" s="5">
+        <v>4</v>
+      </c>
+      <c r="J44" s="5">
+        <v>54.2426115869529</v>
+      </c>
+      <c r="K44" s="5">
+        <v>46.0604907721643</v>
+      </c>
+      <c r="L44" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s" s="6">
+        <v>213</v>
+      </c>
+      <c r="C45" t="s" s="6">
+        <v>214</v>
+      </c>
+      <c r="D45" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" t="s" s="6">
+        <v>212</v>
+      </c>
+      <c r="H45" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I45" s="5">
+        <v>4</v>
+      </c>
+      <c r="J45" s="5">
+        <v>54.4032138791922</v>
+      </c>
+      <c r="K45" s="5">
+        <v>46.2952377051476</v>
+      </c>
+      <c r="L45" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s" s="6">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>216</v>
+      </c>
+      <c r="D46" t="s" s="6">
+        <v>217</v>
+      </c>
+      <c r="E46" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s" s="6">
+        <v>218</v>
+      </c>
+      <c r="H46" t="s" s="6">
+        <v>219</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>54.0854319106198</v>
+      </c>
+      <c r="K46" s="5">
+        <v>45.0446977366695</v>
+      </c>
+      <c r="L46" t="s" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s" s="6">
+        <v>221</v>
+      </c>
+      <c r="C47" t="s" s="6">
+        <v>222</v>
+      </c>
+      <c r="D47" t="s" s="6">
+        <v>223</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s" s="6">
+        <v>224</v>
+      </c>
+      <c r="H47" t="s" s="6">
+        <v>225</v>
+      </c>
+      <c r="I47" s="5">
+        <v>2</v>
+      </c>
+      <c r="J47" s="5">
+        <v>54.0968379648142</v>
+      </c>
+      <c r="K47" s="5">
+        <v>45.3622829279167</v>
+      </c>
+      <c r="L47" t="s" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s" s="6">
+        <v>226</v>
+      </c>
+      <c r="C48" t="s" s="6">
+        <v>227</v>
+      </c>
+      <c r="D48" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" t="s" s="6">
+        <v>228</v>
+      </c>
+      <c r="H48" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I48" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="7">
+      <c r="J48" s="5">
+        <v>53.975219404499</v>
+      </c>
+      <c r="K48" s="5">
+        <v>45.3720990796053</v>
+      </c>
+      <c r="L48" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s" s="6">
+        <v>229</v>
+      </c>
+      <c r="C49" t="s" s="6">
+        <v>230</v>
+      </c>
+      <c r="D49" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" t="s" s="6">
+        <v>231</v>
+      </c>
+      <c r="H49" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I49" s="5">
+        <v>4</v>
+      </c>
+      <c r="J49" s="5">
+        <v>54.9032407917698</v>
+      </c>
+      <c r="K49" s="5">
+        <v>46.2154151648643</v>
+      </c>
+      <c r="L49" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s" s="6">
+        <v>232</v>
+      </c>
+      <c r="C50" t="s" s="6">
+        <v>233</v>
+      </c>
+      <c r="D50" t="s" s="6">
+        <v>234</v>
+      </c>
+      <c r="E50" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s" s="6">
+        <v>235</v>
+      </c>
+      <c r="H50" t="s" s="6">
+        <v>236</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>54.246660690762</v>
+      </c>
+      <c r="K50" s="5">
+        <v>45.199014105993</v>
+      </c>
+      <c r="L50" t="s" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s" s="6">
+        <v>237</v>
+      </c>
+      <c r="C51" t="s" s="6">
+        <v>238</v>
+      </c>
+      <c r="D51" t="s" s="6">
+        <v>239</v>
+      </c>
+      <c r="E51" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s" s="6">
+        <v>240</v>
+      </c>
+      <c r="H51" t="s" s="6">
+        <v>241</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>54.1862582762496</v>
+      </c>
+      <c r="K51" s="5">
+        <v>45.2152255858048</v>
+      </c>
+      <c r="L51" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="D4" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6">
-        <v>54.1715663256906</v>
-      </c>
-      <c r="G4" s="6">
-        <v>45.2084279046628</v>
-      </c>
-      <c r="H4" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6">
-        <v>54.181919863271</v>
-      </c>
-      <c r="G5" s="6">
-        <v>45.2213346944423</v>
-      </c>
-      <c r="H5" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6">
-        <v>54.1971743274671</v>
-      </c>
-      <c r="G6" s="6">
-        <v>45.1383249045408</v>
-      </c>
-      <c r="H6" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6">
-        <v>54.2276060375678</v>
-      </c>
-      <c r="G7" s="6">
-        <v>45.2163497844085</v>
-      </c>
-      <c r="H7" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6">
-        <v>54.2104064183889</v>
-      </c>
-      <c r="G8" s="6">
-        <v>45.268730899475</v>
-      </c>
-      <c r="H8" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6">
-        <v>54.1892030865251</v>
-      </c>
-      <c r="G9" s="6">
-        <v>45.2228949547804</v>
-      </c>
-      <c r="H9" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6">
-        <v>54.1446977685109</v>
-      </c>
-      <c r="G10" s="6">
-        <v>45.1892241856683</v>
-      </c>
-      <c r="H10" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s" s="7">
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s" s="6">
+        <v>242</v>
+      </c>
+      <c r="C52" t="s" s="6">
+        <v>243</v>
+      </c>
+      <c r="D52" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" t="s" s="6">
+        <v>244</v>
+      </c>
+      <c r="H52" t="s" s="6">
         <v>47</v>
       </c>
-      <c r="D11" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>54.1783849545214</v>
-      </c>
-      <c r="G11" s="6">
-        <v>45.2788743397818</v>
-      </c>
-      <c r="H11" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s" s="7">
+      <c r="I52" s="5">
+        <v>3</v>
+      </c>
+      <c r="J52" s="5">
+        <v>54.1696704940571</v>
+      </c>
+      <c r="K52" s="5">
+        <v>45.1883731265029</v>
+      </c>
+      <c r="L52" t="s" s="6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="E12" t="s" s="7">
+      <c r="B53" t="s" s="6">
+        <v>246</v>
+      </c>
+      <c r="C53" t="s" s="6">
+        <v>247</v>
+      </c>
+      <c r="D53" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" t="s" s="6">
+        <v>248</v>
+      </c>
+      <c r="H53" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="I53" s="5">
+        <v>3</v>
+      </c>
+      <c r="J53" s="5">
+        <v>54.2327135988852</v>
+      </c>
+      <c r="K53" s="5">
+        <v>45.152141119049</v>
+      </c>
+      <c r="L53" t="s" s="6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="F12" s="6">
-        <v>54.2323231027265</v>
-      </c>
-      <c r="G12" s="6">
-        <v>44.9964327597121</v>
-      </c>
-      <c r="H12" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s" s="9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F13" s="6">
-        <v>54.2992361978256</v>
-      </c>
-      <c r="G13" s="6">
-        <v>45.4316091858888</v>
-      </c>
-      <c r="H13" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F14" s="6">
-        <v>54.3490342608452</v>
-      </c>
-      <c r="G14" s="6">
-        <v>45.5703374287108</v>
-      </c>
-      <c r="H14" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F15" s="6">
-        <v>54.3842000367184</v>
-      </c>
-      <c r="G15" s="6">
-        <v>45.7447194048155</v>
-      </c>
-      <c r="H15" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F16" s="6">
-        <v>54.4136127126742</v>
-      </c>
-      <c r="G16" s="6">
-        <v>45.9842103373145</v>
-      </c>
-      <c r="H16" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F17" s="6">
-        <v>54.4110970484187</v>
-      </c>
-      <c r="G17" s="6">
-        <v>46.437306224884</v>
-      </c>
-      <c r="H17" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F18" s="6">
-        <v>54.2960554711394</v>
-      </c>
-      <c r="G18" s="6">
-        <v>45.0807377239681</v>
-      </c>
-      <c r="H18" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s" s="7">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s" s="7">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F19" s="6">
-        <v>54.0033479645949</v>
-      </c>
-      <c r="G19" s="6">
-        <v>44.8987345634458</v>
-      </c>
-      <c r="H19" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s" s="7">
-        <v>84</v>
-      </c>
-      <c r="E20" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F20" s="6">
-        <v>54.5343487221421</v>
-      </c>
-      <c r="G20" s="6">
-        <v>45.9241810928341</v>
-      </c>
-      <c r="H20" t="s" s="7">
-        <v>85</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F21" s="6">
-        <v>54.5891905350236</v>
-      </c>
-      <c r="G21" s="6">
-        <v>46.1116576878792</v>
-      </c>
-      <c r="H21" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="E22" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F22" s="6">
-        <v>54.8445277059697</v>
-      </c>
-      <c r="G22" s="6">
-        <v>46.3487971513032</v>
-      </c>
-      <c r="H22" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="E23" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F23" s="6">
-        <v>54.4554056851124</v>
-      </c>
-      <c r="G23" s="6">
-        <v>45.3504916916749</v>
-      </c>
-      <c r="H23" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s" s="7">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s" s="7">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F24" s="6">
-        <v>54.8585452930361</v>
-      </c>
-      <c r="G24" s="6">
-        <v>45.4347042976376</v>
-      </c>
-      <c r="H24" t="s" s="7">
-        <v>101</v>
-      </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="C25" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="E25" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F25" s="6">
-        <v>54.3140103737664</v>
-      </c>
-      <c r="G25" s="6">
-        <v>43.3569467619629</v>
-      </c>
-      <c r="H25" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="D26" t="s" s="7">
-        <v>107</v>
-      </c>
-      <c r="E26" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F26" s="6">
-        <v>54.3194172916182</v>
-      </c>
-      <c r="G26" s="6">
-        <v>44.3526685789793</v>
-      </c>
-      <c r="H26" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="C27" t="s" s="7">
-        <v>109</v>
-      </c>
-      <c r="D27" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="E27" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F27" s="6">
-        <v>54.3586220803203</v>
-      </c>
-      <c r="G27" s="6">
-        <v>44.7514343413391</v>
-      </c>
-      <c r="H27" t="s" s="7">
-        <v>111</v>
-      </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>112</v>
-      </c>
-      <c r="C28" t="s" s="7">
-        <v>113</v>
-      </c>
-      <c r="D28" t="s" s="7">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F28" s="6">
-        <v>54.3299483958658</v>
-      </c>
-      <c r="G28" s="6">
-        <v>44.8288716455688</v>
-      </c>
-      <c r="H28" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s" s="7">
-        <v>115</v>
-      </c>
-      <c r="C29" t="s" s="7">
-        <v>116</v>
-      </c>
-      <c r="D29" t="s" s="7">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F29" s="6">
-        <v>54.2699869124462</v>
-      </c>
-      <c r="G29" s="6">
-        <v>44.9386896278453</v>
-      </c>
-      <c r="H29" t="s" s="7">
-        <v>118</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s" s="7">
-        <v>120</v>
-      </c>
-      <c r="D30" t="s" s="7">
-        <v>121</v>
-      </c>
-      <c r="E30" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F30" s="6">
-        <v>54.2300856670146</v>
-      </c>
-      <c r="G30" s="6">
-        <v>45.0257803014249</v>
-      </c>
-      <c r="H30" t="s" s="7">
-        <v>122</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>123</v>
-      </c>
-      <c r="C31" t="s" s="7">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s" s="7">
-        <v>125</v>
-      </c>
-      <c r="E31" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F31" s="6">
-        <v>54.2464573514198</v>
-      </c>
-      <c r="G31" s="6">
-        <v>45.1959155197748</v>
-      </c>
-      <c r="H31" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>127</v>
-      </c>
-      <c r="C32" t="s" s="7">
-        <v>128</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="E32" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F32" s="6">
-        <v>54.2328832208351</v>
-      </c>
-      <c r="G32" s="6">
-        <v>45.2692578430778</v>
-      </c>
-      <c r="H32" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>131</v>
-      </c>
-      <c r="C33" t="s" s="7">
-        <v>132</v>
-      </c>
-      <c r="D33" t="s" s="7">
-        <v>133</v>
-      </c>
-      <c r="E33" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F33" s="6">
-        <v>54.2193328126578</v>
-      </c>
-      <c r="G33" s="6">
-        <v>45.2876505936275</v>
-      </c>
-      <c r="H33" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>134</v>
-      </c>
-      <c r="C34" t="s" s="7">
-        <v>135</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>136</v>
-      </c>
-      <c r="E34" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F34" s="6">
-        <v>53.969193798433</v>
-      </c>
-      <c r="G34" s="6">
-        <v>43.0003189405668</v>
-      </c>
-      <c r="H34" t="s" s="7">
-        <v>137</v>
-      </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="C35" t="s" s="7">
-        <v>139</v>
-      </c>
-      <c r="D35" t="s" s="7">
-        <v>140</v>
-      </c>
-      <c r="E35" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F35" s="6">
-        <v>54.0912486439916</v>
-      </c>
-      <c r="G35" s="6">
-        <v>42.8808293427119</v>
-      </c>
-      <c r="H35" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s" s="7">
-        <v>141</v>
-      </c>
-      <c r="C36" t="s" s="7">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s" s="7">
-        <v>143</v>
-      </c>
-      <c r="E36" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F36" s="6">
-        <v>54.6171466138276</v>
-      </c>
-      <c r="G36" s="6">
-        <v>43.844153255597</v>
-      </c>
-      <c r="H36" t="s" s="7">
-        <v>101</v>
-      </c>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s" s="7">
-        <v>144</v>
-      </c>
-      <c r="C37" t="s" s="7">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s" s="7">
-        <v>146</v>
-      </c>
-      <c r="E37" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F37" s="6">
-        <v>54.5379188458336</v>
-      </c>
-      <c r="G37" s="6">
-        <v>43.4094637338073</v>
-      </c>
-      <c r="H37" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="C38" t="s" s="7">
-        <v>148</v>
-      </c>
-      <c r="D38" t="s" s="7">
-        <v>149</v>
-      </c>
-      <c r="E38" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F38" s="6">
-        <v>54.5912085515812</v>
-      </c>
-      <c r="G38" s="6">
-        <v>43.1867934912578</v>
-      </c>
-      <c r="H38" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s" s="7">
-        <v>150</v>
-      </c>
-      <c r="C39" t="s" s="7">
-        <v>151</v>
-      </c>
-      <c r="D39" t="s" s="7">
-        <v>152</v>
-      </c>
-      <c r="E39" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F39" s="6">
-        <v>54.0056577994886</v>
-      </c>
-      <c r="G39" s="6">
-        <v>44.7704555243385</v>
-      </c>
-      <c r="H39" t="s" s="7">
-        <v>153</v>
-      </c>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s" s="7">
-        <v>154</v>
-      </c>
-      <c r="C40" t="s" s="7">
-        <v>155</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>156</v>
-      </c>
-      <c r="E40" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F40" s="6">
-        <v>53.9627602385524</v>
-      </c>
-      <c r="G40" s="6">
-        <v>44.3294574469457</v>
-      </c>
-      <c r="H40" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s" s="7">
-        <v>157</v>
-      </c>
-      <c r="C41" t="s" s="7">
-        <v>158</v>
-      </c>
-      <c r="D41" t="s" s="7">
-        <v>159</v>
-      </c>
-      <c r="E41" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F41" s="6">
-        <v>53.9947792680077</v>
-      </c>
-      <c r="G41" s="6">
-        <v>44.0915561727014</v>
-      </c>
-      <c r="H41" t="s" s="7">
-        <v>160</v>
-      </c>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>161</v>
-      </c>
-      <c r="C42" t="s" s="7">
-        <v>162</v>
-      </c>
-      <c r="D42" t="s" s="7">
-        <v>163</v>
-      </c>
-      <c r="E42" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F42" s="6">
-        <v>54.0162121143905</v>
-      </c>
-      <c r="G42" s="6">
-        <v>43.906516802598</v>
-      </c>
-      <c r="H42" t="s" s="7">
-        <v>164</v>
-      </c>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s" s="7">
-        <v>165</v>
-      </c>
-      <c r="C43" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="D43" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="E43" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F43" s="6">
-        <v>54.0445206409116</v>
-      </c>
-      <c r="G43" s="6">
-        <v>43.3796550482879</v>
-      </c>
-      <c r="H43" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s" s="7">
-        <v>169</v>
-      </c>
-      <c r="C44" t="s" s="7">
-        <v>170</v>
-      </c>
-      <c r="D44" t="s" s="7">
-        <v>171</v>
-      </c>
-      <c r="E44" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F44" s="6">
-        <v>54.2426115869529</v>
-      </c>
-      <c r="G44" s="6">
-        <v>46.0604907721643</v>
-      </c>
-      <c r="H44" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s" s="7">
-        <v>172</v>
-      </c>
-      <c r="C45" t="s" s="7">
-        <v>173</v>
-      </c>
-      <c r="D45" t="s" s="7">
-        <v>171</v>
-      </c>
-      <c r="E45" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F45" s="6">
-        <v>54.4032138791922</v>
-      </c>
-      <c r="G45" s="6">
-        <v>46.2952377051476</v>
-      </c>
-      <c r="H45" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s" s="7">
-        <v>174</v>
-      </c>
-      <c r="C46" t="s" s="7">
-        <v>175</v>
-      </c>
-      <c r="D46" t="s" s="7">
-        <v>176</v>
-      </c>
-      <c r="E46" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F46" s="6">
-        <v>54.0752165874491</v>
-      </c>
-      <c r="G46" s="6">
-        <v>45.0135908176197</v>
-      </c>
-      <c r="H46" t="s" s="7">
-        <v>177</v>
-      </c>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s" s="7">
-        <v>178</v>
-      </c>
-      <c r="C47" t="s" s="7">
-        <v>179</v>
-      </c>
-      <c r="D47" t="s" s="7">
-        <v>180</v>
-      </c>
-      <c r="E47" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="F47" s="6">
-        <v>54.0693213575245</v>
-      </c>
-      <c r="G47" s="6">
-        <v>45.4070972761378</v>
-      </c>
-      <c r="H47" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="6">
+      <c r="B54" t="s" s="6">
+        <v>250</v>
+      </c>
+      <c r="C54" t="s" s="6">
+        <v>251</v>
+      </c>
+      <c r="D54" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" t="s" s="6">
+        <v>252</v>
+      </c>
+      <c r="H54" t="s" s="6">
         <v>47</v>
       </c>
-      <c r="B48" t="s" s="7">
-        <v>181</v>
-      </c>
-      <c r="C48" t="s" s="7">
-        <v>182</v>
-      </c>
-      <c r="D48" t="s" s="7">
-        <v>183</v>
-      </c>
-      <c r="E48" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F48" s="6">
-        <v>53.975219404499</v>
-      </c>
-      <c r="G48" s="6">
-        <v>45.3720990796053</v>
-      </c>
-      <c r="H48" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s" s="7">
-        <v>184</v>
-      </c>
-      <c r="C49" t="s" s="7">
-        <v>185</v>
-      </c>
-      <c r="D49" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="E49" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F49" s="6">
-        <v>54.9032407917698</v>
-      </c>
-      <c r="G49" s="6">
-        <v>46.2154151648643</v>
-      </c>
-      <c r="H49" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" ht="32.05" customHeight="1">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s" s="7">
-        <v>187</v>
-      </c>
-      <c r="C50" t="s" s="7">
-        <v>188</v>
-      </c>
-      <c r="D50" t="s" s="7">
-        <v>189</v>
-      </c>
-      <c r="E50" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F50" s="6">
-        <v>54.243759725115</v>
-      </c>
-      <c r="G50" s="6">
-        <v>45.1565442169771</v>
-      </c>
-      <c r="H50" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="I50" t="s" s="9">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" ht="32.05" customHeight="1">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s" s="7">
-        <v>191</v>
-      </c>
-      <c r="C51" t="s" s="7">
-        <v>192</v>
-      </c>
-      <c r="D51" t="s" s="7">
-        <v>193</v>
-      </c>
-      <c r="E51" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="F51" s="6">
-        <v>54.1862582762496</v>
-      </c>
-      <c r="G51" s="6">
-        <v>45.2152255858048</v>
-      </c>
-      <c r="H51" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I51" t="s" s="9">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s" s="7">
-        <v>194</v>
-      </c>
-      <c r="C52" t="s" s="7">
-        <v>195</v>
-      </c>
-      <c r="D52" t="s" s="7">
-        <v>196</v>
-      </c>
-      <c r="E52" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F52" s="6">
-        <v>54.1696704940571</v>
-      </c>
-      <c r="G52" s="6">
-        <v>45.1883731265029</v>
-      </c>
-      <c r="H52" t="s" s="7">
-        <v>197</v>
-      </c>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="6">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s" s="7">
-        <v>198</v>
-      </c>
-      <c r="C53" t="s" s="7">
-        <v>199</v>
-      </c>
-      <c r="D53" t="s" s="7">
-        <v>200</v>
-      </c>
-      <c r="E53" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F53" s="6">
-        <v>54.2327135988852</v>
-      </c>
-      <c r="G53" s="6">
-        <v>45.152141119049</v>
-      </c>
-      <c r="H53" t="s" s="7">
-        <v>201</v>
-      </c>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="6">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s" s="7">
-        <v>202</v>
-      </c>
-      <c r="C54" t="s" s="7">
-        <v>203</v>
-      </c>
-      <c r="D54" t="s" s="7">
-        <v>204</v>
-      </c>
-      <c r="E54" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="I54" s="5">
+        <v>3</v>
+      </c>
+      <c r="J54" s="5">
         <v>54.1804331735226</v>
       </c>
-      <c r="G54" s="6">
+      <c r="K54" s="5">
         <v>45.1928758273581</v>
       </c>
-      <c r="H54" t="s" s="7">
-        <v>201</v>
-      </c>
-      <c r="I54" s="9"/>
+      <c r="L54" t="s" s="6">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/public/download/fvf/places-fvf.xlsx
+++ b/public/download/fvf/places-fvf.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>№</t>
   </si>
@@ -91,7 +91,7 @@
     <t>направить комплекс в противоположную сторону от Рузаевки</t>
   </si>
   <si>
-    <t>ЭП Включено, БПФ демонтирован</t>
+    <t>ЭП Включено, БПФ смонтирован</t>
   </si>
   <si>
     <t>КПроМ-Стац-PM0408</t>
@@ -130,7 +130,7 @@
     <t>направить комплекс в сторону Саранск</t>
   </si>
   <si>
-    <t>Нет ЭП, заявка на договор в МРСК отправлена</t>
+    <t>Нет ЭП, заявка на договор в МРСК отправлена, проработка вопроса</t>
   </si>
   <si>
     <t>КПроМ-Стац-PM0410</t>
@@ -187,6 +187,9 @@
     <t>направить комплекс в сторону юго-запада</t>
   </si>
   <si>
+    <t>ЭП Включено, АКБ работал штатно - требуется выезд</t>
+  </si>
+  <si>
     <t>КПроМ-Стац-PM0414</t>
   </si>
   <si>
@@ -211,7 +214,7 @@
     <t>направить комплекс в сторону Спасск</t>
   </si>
   <si>
-    <t>ЭП Включено, проблемы со связью</t>
+    <t>ЭП Включено, проблемы со связью, роутер с антенной заказан (произвести монтаж до 23 сентября)</t>
   </si>
   <si>
     <t>КПроМ-Стац-PM0416</t>
@@ -226,6 +229,9 @@
     <t>направить комплекс в сторону Саранска</t>
   </si>
   <si>
+    <t>Нет ЭП, заявка на договор в МРСК отправлена, перенос точки (Никольское)</t>
+  </si>
+  <si>
     <t>КПроМ-Стац-PM0417</t>
   </si>
   <si>
@@ -289,6 +295,9 @@
     <t>“М5 АЗС Башнефть”</t>
   </si>
   <si>
+    <t>Нет ЭП, заявка на договор в МРСК отправлена, уточнить вопрос ЭП от АЗС</t>
+  </si>
+  <si>
     <t>КПроМ-Стац-PM0422</t>
   </si>
   <si>
@@ -334,6 +343,9 @@
     <t>направить в сторону центра</t>
   </si>
   <si>
+    <t>ЭП Включено, БПФ смонтирован - требуется выезд (замена сим карты)</t>
+  </si>
+  <si>
     <t>КПроМ-Стац-PM0426</t>
   </si>
   <si>
@@ -346,6 +358,9 @@
     <t>направить комплекс в сторону светотехстроя</t>
   </si>
   <si>
+    <t>ЭП Включено, БПФ смонтирован - требуется выезд - замена АКБ</t>
+  </si>
+  <si>
     <t>КПроМ-Стац-PM0427</t>
   </si>
   <si>
@@ -389,6 +404,9 @@
   </si>
   <si>
     <t>“Въезд в Саранск из Лямбирь”</t>
+  </si>
+  <si>
+    <t>Нет ЭП, заявка на договор в МРСК отправлена, требуется выезд - коммутация ЭП</t>
   </si>
 </sst>
 </file>
@@ -399,7 +417,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -411,13 +429,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -468,7 +497,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -483,7 +512,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -496,38 +525,41 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,6 +582,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff88f94e"/>
     </indexedColors>
   </colors>
@@ -567,10 +600,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -747,11 +780,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -760,34 +796,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1035,12 +1071,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1331,7 +1367,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1611,16 +1647,14 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.35156" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.1328" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.1719" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.8516" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
@@ -1628,7 +1662,7 @@
     <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.1719" style="1" customWidth="1"/>
     <col min="11" max="12" width="9.35156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="34.5547" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48.9062" style="1" customWidth="1"/>
     <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1654,7 +1688,7 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
       <c r="I1" t="s" s="2">
@@ -1674,1028 +1708,1028 @@
       </c>
     </row>
     <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>44797</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s" s="4">
+      <c r="I2" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>54.062449</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>43.259713</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="M2" t="s" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="3" ht="44.05" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>44799</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H3" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s" s="8">
+      <c r="H3" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="9">
         <v>54.084838</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="9">
         <v>44.997251</v>
       </c>
-      <c r="M3" t="s" s="8">
+      <c r="M3" t="s" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="44.05" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>44784</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="E4" t="s" s="8">
+      <c r="E4" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="F4" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H4" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="8">
+      <c r="H4" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="9">
         <v>54.180819</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="9">
         <v>45.13104</v>
       </c>
-      <c r="M4" t="s" s="8">
+      <c r="M4" t="s" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>44789</v>
       </c>
-      <c r="D5" t="s" s="8">
+      <c r="D5" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="E5" t="s" s="8">
+      <c r="E5" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="F5" t="s" s="8">
+      <c r="F5" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="G5" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H5" t="s" s="8">
+      <c r="H5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="I5" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s" s="8">
+      <c r="I5" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="9">
         <v>54.294522</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="9">
         <v>45.082566</v>
       </c>
-      <c r="M5" t="s" s="8">
+      <c r="M5" t="s" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>44782</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="D6" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="E6" t="s" s="8">
+      <c r="E6" t="s" s="7">
         <v>42</v>
       </c>
-      <c r="F6" t="s" s="8">
+      <c r="F6" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="G6" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H6" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s" s="8">
+      <c r="H6" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="9">
         <v>54.143785</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="9">
         <v>45.186837</v>
       </c>
-      <c r="M6" t="s" s="8">
+      <c r="M6" t="s" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>44791</v>
       </c>
-      <c r="D7" t="s" s="8">
+      <c r="D7" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="E7" t="s" s="8">
+      <c r="E7" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="F7" t="s" s="8">
+      <c r="F7" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="G7" t="s" s="8">
+      <c r="G7" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H7" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s" s="8">
+      <c r="H7" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="9">
         <v>54.050978</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="9">
         <v>45.437801</v>
       </c>
-      <c r="M7" t="s" s="8">
+      <c r="M7" t="s" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>44803</v>
       </c>
-      <c r="D8" t="s" s="8">
+      <c r="D8" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="E8" t="s" s="8">
+      <c r="E8" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="F8" t="s" s="8">
+      <c r="F8" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="G8" t="s" s="8">
+      <c r="G8" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H8" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s" s="8">
+      <c r="H8" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="9">
         <v>54.895004</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="9">
         <v>46.223006</v>
       </c>
-      <c r="M8" t="s" s="8">
+      <c r="M8" t="s" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>44785</v>
       </c>
-      <c r="D9" t="s" s="8">
+      <c r="D9" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="E9" t="s" s="8">
+      <c r="E9" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="F9" t="s" s="8">
+      <c r="F9" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="G9" t="s" s="8">
+      <c r="G9" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H9" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s" s="8">
+      <c r="H9" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="9">
         <v>54.204158</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="9">
         <v>45.118526</v>
       </c>
-      <c r="M9" t="s" s="8">
-        <v>32</v>
+      <c r="M9" t="s" s="7">
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10">
         <v>44789</v>
       </c>
-      <c r="D10" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s" s="8">
+      <c r="D10" t="s" s="7">
         <v>60</v>
       </c>
-      <c r="F10" t="s" s="8">
+      <c r="E10" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="G10" t="s" s="8">
+      <c r="G10" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H10" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s" s="8">
+      <c r="H10" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="9">
         <v>54.171417</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="9">
         <v>45.208204</v>
       </c>
-      <c r="M10" t="s" s="8">
+      <c r="M10" t="s" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C11" s="10">
         <v>44797</v>
       </c>
-      <c r="D11" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s" s="8">
+      <c r="D11" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="F11" t="s" s="8">
+      <c r="E11" t="s" s="7">
         <v>64</v>
       </c>
-      <c r="G11" t="s" s="8">
+      <c r="F11" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H11" t="s" s="8">
+      <c r="H11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="I11" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="I11" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="K11" s="9">
         <v>54.009824</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="9">
         <v>42.959804</v>
       </c>
-      <c r="M11" t="s" s="8">
-        <v>66</v>
+      <c r="M11" t="s" s="7">
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="C12" s="10">
         <v>44802</v>
       </c>
-      <c r="D12" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s" s="8">
+      <c r="D12" t="s" s="7">
         <v>69</v>
       </c>
-      <c r="F12" t="s" s="8">
+      <c r="E12" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="G12" t="s" s="8">
+      <c r="G12" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H12" t="s" s="8">
+      <c r="H12" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="I12" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="I12" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="K12" s="9">
         <v>53.98672</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="9">
         <v>44.13868</v>
       </c>
-      <c r="M12" t="s" s="8">
-        <v>39</v>
+      <c r="M12" t="s" s="7">
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="32.05" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="C13" s="10">
         <v>44805</v>
       </c>
-      <c r="D13" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s" s="8">
+      <c r="D13" t="s" s="7">
         <v>74</v>
       </c>
-      <c r="G13" t="s" s="8">
+      <c r="E13" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H13" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s" s="8">
+      <c r="H13" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="J13" t="s" s="8">
+      <c r="J13" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="9">
         <v>54.428431</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="9">
         <v>45.316209</v>
       </c>
-      <c r="M13" t="s" s="8">
-        <v>75</v>
+      <c r="M13" t="s" s="7">
+        <v>77</v>
       </c>
     </row>
     <row r="14" ht="32.05" customHeight="1">
-      <c r="A14" s="7">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="C14" s="10">
         <v>44798</v>
       </c>
-      <c r="D14" t="s" s="8">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s" s="8">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s" s="8">
+      <c r="D14" t="s" s="7">
         <v>79</v>
       </c>
-      <c r="G14" t="s" s="8">
+      <c r="E14" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s" s="7">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H14" t="s" s="8">
+      <c r="H14" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="I14" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s" s="8">
+      <c r="I14" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="9">
         <v>54.335519</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="9">
         <v>44.822344</v>
       </c>
-      <c r="M14" t="s" s="8">
-        <v>66</v>
+      <c r="M14" t="s" s="7">
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="32.05" customHeight="1">
-      <c r="A15" s="7">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="8">
-        <v>80</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="C15" s="10">
         <v>44771</v>
       </c>
-      <c r="D15" t="s" s="8">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s" s="8">
+      <c r="D15" t="s" s="7">
         <v>83</v>
       </c>
-      <c r="G15" t="s" s="8">
+      <c r="E15" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H15" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="H15" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="K15" s="9">
         <v>54.186161</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="9">
         <v>45.214915</v>
       </c>
-      <c r="M15" t="s" s="8">
+      <c r="M15" t="s" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" s="7">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" t="s" s="7">
+        <v>87</v>
+      </c>
+      <c r="C16" s="10">
         <v>44800</v>
       </c>
-      <c r="D16" t="s" s="8">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s" s="8">
+      <c r="D16" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="G16" t="s" s="8">
+      <c r="G16" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H16" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="H16" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="K16" s="9">
         <v>54.215843</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="9">
         <v>45.230497</v>
       </c>
-      <c r="M16" t="s" s="8">
+      <c r="M16" t="s" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="32.05" customHeight="1">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="C17" s="10">
         <v>44799</v>
       </c>
-      <c r="D17" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="E17" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="F17" t="s" s="8">
+      <c r="D17" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s" s="7">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="G17" t="s" s="8">
+      <c r="G17" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H17" t="s" s="8">
+      <c r="H17" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="I17" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s" s="8">
+      <c r="I17" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="9">
         <v>54.230115</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="9">
         <v>45.027184</v>
       </c>
-      <c r="M17" t="s" s="8">
-        <v>39</v>
+      <c r="M17" t="s" s="7">
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="32.05" customHeight="1">
-      <c r="A18" s="7">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="C18" s="10">
         <v>44802</v>
       </c>
-      <c r="D18" t="s" s="8">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s" s="8">
-        <v>94</v>
-      </c>
-      <c r="F18" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="G18" t="s" s="8">
+      <c r="D18" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H18" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s" s="8">
+      <c r="H18" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="9">
         <v>54.01895</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="9">
         <v>43.907617</v>
       </c>
-      <c r="M18" t="s" s="8">
-        <v>75</v>
+      <c r="M18" t="s" s="7">
+        <v>77</v>
       </c>
     </row>
     <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" s="7">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="8">
-        <v>96</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="C19" s="10">
         <v>44790</v>
       </c>
-      <c r="D19" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s" s="8">
-        <v>98</v>
-      </c>
-      <c r="F19" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s" s="8">
+      <c r="D19" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s" s="7">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s" s="7">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H19" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s" s="8">
+      <c r="H19" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="9">
         <v>54.246003</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="9">
         <v>45.19002</v>
       </c>
-      <c r="M19" t="s" s="8">
-        <v>75</v>
+      <c r="M19" t="s" s="7">
+        <v>77</v>
       </c>
     </row>
     <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>100</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="C20" s="10">
         <v>44791</v>
       </c>
-      <c r="D20" t="s" s="8">
-        <v>101</v>
-      </c>
-      <c r="E20" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="F20" t="s" s="8">
+      <c r="D20" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="G20" t="s" s="8">
+      <c r="G20" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H20" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s" s="8">
+      <c r="H20" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="9">
         <v>54.096277</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="9">
         <v>45.366015</v>
       </c>
-      <c r="M20" t="s" s="8">
+      <c r="M20" t="s" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="21" ht="32.05" customHeight="1">
-      <c r="A21" s="7">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="C21" s="10">
         <v>44800</v>
       </c>
-      <c r="D21" t="s" s="8">
-        <v>104</v>
-      </c>
-      <c r="E21" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="F21" t="s" s="8">
+      <c r="D21" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="G21" t="s" s="8">
+      <c r="G21" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H21" t="s" s="8">
+      <c r="H21" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="I21" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="I21" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="K21" s="9">
         <v>54.212067</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="9">
         <v>45.166698</v>
       </c>
-      <c r="M21" t="s" s="8">
-        <v>26</v>
+      <c r="M21" t="s" s="7">
+        <v>110</v>
       </c>
     </row>
     <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" s="7">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="C22" s="10">
         <v>44788</v>
       </c>
-      <c r="D22" t="s" s="8">
-        <v>108</v>
-      </c>
-      <c r="E22" t="s" s="8">
-        <v>109</v>
-      </c>
-      <c r="F22" t="s" s="8">
+      <c r="D22" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="G22" t="s" s="8">
+      <c r="G22" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H22" t="s" s="8">
+      <c r="H22" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="I22" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="I22" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="K22" s="9">
         <v>54.206603</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="9">
         <v>45.133467</v>
       </c>
-      <c r="M22" t="s" s="8">
-        <v>26</v>
+      <c r="M22" t="s" s="7">
+        <v>115</v>
       </c>
     </row>
     <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" s="7">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="C23" s="10">
         <v>44783</v>
       </c>
-      <c r="D23" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="E23" t="s" s="8">
-        <v>113</v>
-      </c>
-      <c r="F23" t="s" s="8">
+      <c r="D23" t="s" s="7">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s" s="7">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="G23" t="s" s="8">
+      <c r="G23" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H23" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I23" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s" s="8">
+      <c r="H23" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="9">
         <v>54.157725</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="9">
         <v>45.222055</v>
       </c>
-      <c r="M23" t="s" s="8">
+      <c r="M23" t="s" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="24" ht="32.05" customHeight="1">
-      <c r="A24" s="7">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="8">
-        <v>114</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B24" t="s" s="7">
+        <v>119</v>
+      </c>
+      <c r="C24" s="10">
         <v>44803</v>
       </c>
-      <c r="D24" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="E24" t="s" s="8">
-        <v>116</v>
-      </c>
-      <c r="F24" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="G24" t="s" s="8">
+      <c r="D24" t="s" s="7">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s" s="7">
+        <v>121</v>
+      </c>
+      <c r="F24" t="s" s="7">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H24" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="I24" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s" s="8">
-        <v>118</v>
-      </c>
-      <c r="K24" s="7">
+      <c r="H24" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s" s="7">
+        <v>123</v>
+      </c>
+      <c r="K24" s="9">
         <v>54.567488</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="9">
         <v>45.990948</v>
       </c>
-      <c r="M24" t="s" s="8">
+      <c r="M24" t="s" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="25" ht="32.05" customHeight="1">
-      <c r="A25" s="7">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="C25" s="10">
         <v>44798</v>
       </c>
-      <c r="D25" t="s" s="8">
-        <v>120</v>
-      </c>
-      <c r="E25" t="s" s="8">
-        <v>121</v>
-      </c>
-      <c r="F25" t="s" s="8">
+      <c r="D25" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="E25" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="G25" t="s" s="8">
+      <c r="G25" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H25" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="I25" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="K25" s="7">
+      <c r="H25" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s" s="7">
+        <v>127</v>
+      </c>
+      <c r="K25" s="9">
         <v>54.176306</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="9">
         <v>45.196683</v>
       </c>
-      <c r="M25" t="s" s="8">
+      <c r="M25" t="s" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="26" ht="32.05" customHeight="1">
-      <c r="A26" s="7">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="B26" t="s" s="7">
+        <v>128</v>
+      </c>
+      <c r="C26" s="10">
         <v>44788</v>
       </c>
-      <c r="D26" t="s" s="8">
-        <v>124</v>
-      </c>
-      <c r="E26" t="s" s="8">
-        <v>125</v>
-      </c>
-      <c r="F26" t="s" s="8">
+      <c r="D26" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s" s="7">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="G26" t="s" s="8">
+      <c r="G26" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="H26" t="s" s="8">
+      <c r="H26" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="I26" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s" s="8">
+      <c r="I26" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="9">
         <v>54.258333</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="9">
         <v>45.132778</v>
       </c>
-      <c r="M26" t="s" s="8">
-        <v>39</v>
+      <c r="M26" t="s" s="7">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/fvf/places-fvf.xlsx
+++ b/public/download/fvf/places-fvf.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
-  <si>
-    <t>28 сентября 2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+  <si>
+    <t>29 сентября 2022</t>
   </si>
   <si>
     <t>№</t>
@@ -31,15 +31,24 @@
     <t>Примечание</t>
   </si>
   <si>
+    <t>PM0418</t>
+  </si>
+  <si>
+    <t>“М5 с. Старая Обуховка”</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Комплекс работает штатно с 27.09.2022 (через внешний LTE-роутер)</t>
+  </si>
+  <si>
     <t>PM0407</t>
   </si>
   <si>
     <t>“Стекольный завод”</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
     <t>Комплекс работает штатно</t>
   </si>
   <si>
@@ -79,187 +88,125 @@
     <t>“Мегастрой”</t>
   </si>
   <si>
+    <t>PM0416</t>
+  </si>
+  <si>
+    <t>“Никольское”</t>
+  </si>
+  <si>
+    <t>PM0417</t>
+  </si>
+  <si>
+    <t>“АГЗС Ромоданово”</t>
+  </si>
+  <si>
+    <t>PM0419</t>
+  </si>
+  <si>
+    <t>“Сити-Парк”</t>
+  </si>
+  <si>
+    <t>PM0420</t>
+  </si>
+  <si>
+    <t>“Тяговая подстанция”</t>
+  </si>
+  <si>
+    <t>PM0422</t>
+  </si>
+  <si>
+    <t>“Выезд Ковылкино-Торбеево”</t>
+  </si>
+  <si>
+    <t>PM0423</t>
+  </si>
+  <si>
+    <t>“М5 Стоянка большегрузов”</t>
+  </si>
+  <si>
+    <t>PM0424</t>
+  </si>
+  <si>
+    <t>“Танеевка”</t>
+  </si>
+  <si>
+    <t>PM0425</t>
+  </si>
+  <si>
+    <t>“Кабельный завод”</t>
+  </si>
+  <si>
+    <t>PM0426</t>
+  </si>
+  <si>
+    <t>“АЗС Ситиойл - ЦОП”</t>
+  </si>
+  <si>
+    <t>PM0427</t>
+  </si>
+  <si>
+    <t>“Аэропорт”</t>
+  </si>
+  <si>
+    <t>PM0428</t>
+  </si>
+  <si>
+    <t>“Манадыши”</t>
+  </si>
+  <si>
+    <t>PM0429</t>
+  </si>
+  <si>
+    <t>“Островок безопасности”</t>
+  </si>
+  <si>
+    <t>PM0409</t>
+  </si>
+  <si>
+    <t>“Первомайск”</t>
+  </si>
+  <si>
+    <t>Комплекс работает от ночного освещения, проверить работу в течении следующих дней</t>
+  </si>
+  <si>
+    <t>PM0421</t>
+  </si>
+  <si>
+    <t>“Атемар”</t>
+  </si>
+  <si>
+    <t>PM0406</t>
+  </si>
+  <si>
+    <t>“Въезд в Торбеево/Дракино”</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Нет ЭП - передислокация 30 сентября</t>
+  </si>
+  <si>
+    <t>PM0430</t>
+  </si>
+  <si>
+    <t>“Въезд в Саранск из Лямбирь”</t>
+  </si>
+  <si>
+    <t>Был онлайн ~ 8 часов с 6:00 28-сент до 14:00 28-сент + +Линк упал 28.09.2022 с 14:00</t>
+  </si>
+  <si>
     <t>PM0415</t>
   </si>
   <si>
     <t>“М5 Н.Выселки”</t>
   </si>
   <si>
-    <t>Комплекс работает штатно с 28.09.2022 (через внешний LTE-роутер)</t>
-  </si>
-  <si>
-    <t>PM0416</t>
-  </si>
-  <si>
-    <t>“Никольское”</t>
-  </si>
-  <si>
-    <t>PM0417</t>
-  </si>
-  <si>
-    <t>“АГЗС Ромоданово”</t>
-  </si>
-  <si>
-    <t>PM0418</t>
-  </si>
-  <si>
-    <t>“М5 с. Старая Обуховка”</t>
-  </si>
-  <si>
-    <t>Комплекс работает штатно с 27.09.2022 (через внешний LTE-роутер)</t>
-  </si>
-  <si>
-    <t>PM0419</t>
-  </si>
-  <si>
-    <t>“Сити-Парк”</t>
-  </si>
-  <si>
-    <t>PM0420</t>
-  </si>
-  <si>
-    <t>“Тяговая подстанция”</t>
-  </si>
-  <si>
-    <t>PM0422</t>
-  </si>
-  <si>
-    <t>“Выезд Ковылкино-Торбеево”</t>
-  </si>
-  <si>
-    <t>PM0423</t>
-  </si>
-  <si>
-    <t>“М5 Стоянка большегрузов”</t>
-  </si>
-  <si>
-    <t>PM0424</t>
-  </si>
-  <si>
-    <t>“Танеевка”</t>
-  </si>
-  <si>
-    <t>PM0425</t>
-  </si>
-  <si>
-    <t>“Кабельный завод”</t>
-  </si>
-  <si>
-    <t>PM0426</t>
-  </si>
-  <si>
-    <t>“АЗС Ситиойл - ЦОП”</t>
-  </si>
-  <si>
-    <t>PM0427</t>
-  </si>
-  <si>
-    <t>“Аэропорт”</t>
-  </si>
-  <si>
-    <t>PM0428</t>
-  </si>
-  <si>
-    <t>“Манадыши”</t>
-  </si>
-  <si>
-    <t>PM0429</t>
-  </si>
-  <si>
-    <t>“Островок безопасности”</t>
-  </si>
-  <si>
-    <t>PM0430</t>
-  </si>
-  <si>
-    <t>“Въезд в Саранск из Лямбирь”</t>
-  </si>
-  <si>
-    <t>Комплекс работает штатно с 28.09.2022</t>
-  </si>
-  <si>
-    <t>PM0421</t>
-  </si>
-  <si>
-    <t>“М5 АЗС Башнефть”</t>
-  </si>
-  <si>
-    <t>30 сентября</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Вопрос по ЭП с АЗС: согласование с руководством - устно озвучено что вопрос скорее всего не решится положительно (конкретнее 29 сентября)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>(сменить дислокацию - ?)</t>
-    </r>
-  </si>
-  <si>
-    <t>PM0409</t>
-  </si>
-  <si>
-    <t>“Лямбирь-Спортивная”</t>
-  </si>
-  <si>
-    <t>~15 октября</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Нет ЭП, ведется согласование с ФедУпрДор - прогноз - ЭП появится не раньше 15 октября -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>(сменить дислокацию - ?)</t>
-    </r>
-  </si>
-  <si>
-    <t>PM0406</t>
-  </si>
-  <si>
-    <t>“Въезд в Торбеево/Дракино”</t>
-  </si>
-  <si>
-    <t>~1 ноября</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Нет ЭП, на контроле у УпрДора, прогноз - ЭП появится не раньше 1 ноября -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>(сменить дислокацию - ?)</t>
-    </r>
+    <t>Был онлайн ~ 11 часов с 14:00 28-сент до 2:00 29-сент
+ +Линк упал 29.09.2022 02:00</t>
   </si>
 </sst>
 </file>
@@ -269,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -290,11 +237,6 @@
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -439,7 +381,6 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff88f94e"/>
       <rgbColor rgb="ffff968c"/>
-      <rgbColor rgb="ffed220b"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1509,7 +1450,7 @@
     <col min="1" max="1" width="3.35156" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.8516" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.5781" style="1" customWidth="1"/>
     <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1540,7 +1481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
+    <row r="3" ht="32.25" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1571,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -1579,16 +1520,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="8">
         <v>12</v>
-      </c>
-      <c r="C5" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="8">
-        <v>9</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -1596,16 +1537,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E6" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -1613,16 +1554,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E7" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -1630,16 +1571,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E8" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -1647,33 +1588,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E9" t="s" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="32.05" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E10" t="s" s="8">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -1690,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -1707,10 +1648,10 @@
         <v>8</v>
       </c>
       <c r="E12" t="s" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="32.05" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1724,7 +1665,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s" s="8">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -1732,16 +1673,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="C14" t="s" s="8">
-        <v>33</v>
-      </c>
       <c r="D14" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E14" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -1749,16 +1690,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="C15" t="s" s="8">
-        <v>35</v>
-      </c>
       <c r="D15" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E15" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -1766,16 +1707,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="C16" t="s" s="8">
-        <v>37</v>
-      </c>
       <c r="D16" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E16" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -1783,16 +1724,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s" s="8">
         <v>38</v>
       </c>
-      <c r="C17" t="s" s="8">
-        <v>39</v>
-      </c>
       <c r="D17" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E17" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -1800,16 +1741,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s" s="8">
         <v>40</v>
       </c>
-      <c r="C18" t="s" s="8">
-        <v>41</v>
-      </c>
       <c r="D18" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -1817,16 +1758,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s" s="8">
         <v>42</v>
       </c>
-      <c r="C19" t="s" s="8">
-        <v>43</v>
-      </c>
       <c r="D19" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -1834,16 +1775,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s" s="8">
         <v>44</v>
       </c>
-      <c r="C20" t="s" s="8">
-        <v>45</v>
-      </c>
       <c r="D20" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E20" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -1851,16 +1792,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="C21" t="s" s="8">
-        <v>47</v>
-      </c>
       <c r="D21" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -1868,36 +1809,36 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="C22" t="s" s="8">
-        <v>49</v>
-      </c>
       <c r="D22" t="s" s="9">
         <v>8</v>
       </c>
       <c r="E22" t="s" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="32.05" customHeight="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s" s="8">
         <v>50</v>
       </c>
-      <c r="C23" t="s" s="8">
+      <c r="D23" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="8">
         <v>51</v>
       </c>
-      <c r="D23" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
+    </row>
+    <row r="24" ht="32.05" customHeight="1">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -1911,24 +1852,24 @@
         <v>8</v>
       </c>
       <c r="E24" t="s" s="8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" ht="56.05" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s" s="8">
         <v>55</v>
       </c>
-      <c r="C25" t="s" s="8">
+      <c r="D25" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="D25" t="s" s="10">
+      <c r="E25" t="s" s="8">
         <v>57</v>
-      </c>
-      <c r="E25" t="s" s="8">
-        <v>58</v>
       </c>
     </row>
     <row r="26" ht="44.05" customHeight="1">
@@ -1936,16 +1877,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s" s="8">
         <v>59</v>
       </c>
-      <c r="C26" t="s" s="8">
+      <c r="D26" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s" s="8">
         <v>60</v>
-      </c>
-      <c r="D26" t="s" s="10">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s" s="8">
-        <v>62</v>
       </c>
     </row>
     <row r="27" ht="44.05" customHeight="1">
@@ -1953,16 +1894,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s" s="8">
         <v>63</v>
-      </c>
-      <c r="C27" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="E27" t="s" s="8">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/fvf/places-fvf.xlsx
+++ b/public/download/fvf/places-fvf.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
-  <si>
-    <t>29 сентября 2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+  <si>
+    <t>8 октября 2022 г.</t>
   </si>
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Идентификатор</t>
+    <t>ID</t>
   </si>
   <si>
     <t>Краткое имя</t>
@@ -28,7 +28,109 @@
     <t>Онлайн</t>
   </si>
   <si>
-    <t>Примечание</t>
+    <t>Поставщик ЭП</t>
+  </si>
+  <si>
+    <t>Тип ЭП</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>PM0406</t>
+  </si>
+  <si>
+    <t>“М5 Торбеево”</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>ФедУпрДор</t>
+  </si>
+  <si>
+    <t>Ночное освещение</t>
+  </si>
+  <si>
+    <t>Комплекс работает штатно</t>
+  </si>
+  <si>
+    <t>PM0407</t>
+  </si>
+  <si>
+    <t>“Стекольный завод”</t>
+  </si>
+  <si>
+    <t>УпрДор</t>
+  </si>
+  <si>
+    <t>PM0408</t>
+  </si>
+  <si>
+    <t>“АЗС Газпромнефть (Ю-З ш.)”</t>
+  </si>
+  <si>
+    <t>Горсвет</t>
+  </si>
+  <si>
+    <t>PM0409</t>
+  </si>
+  <si>
+    <t>“Первомайск”</t>
+  </si>
+  <si>
+    <t>PM0410</t>
+  </si>
+  <si>
+    <t>“Пушкино”</t>
+  </si>
+  <si>
+    <t>PM0411</t>
+  </si>
+  <si>
+    <t>“Въезд в Кочкурово”</t>
+  </si>
+  <si>
+    <t>СЖО РМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Круглосуточное ЭП </t>
+  </si>
+  <si>
+    <t>PM0412</t>
+  </si>
+  <si>
+    <t>“Октябрьский” (3 опора на въезде)</t>
+  </si>
+  <si>
+    <t>PM0413</t>
+  </si>
+  <si>
+    <t>“После ключаревского поворота (Ю-З ш.)”</t>
+  </si>
+  <si>
+    <t>PM0414</t>
+  </si>
+  <si>
+    <t>“Мегастрой”</t>
+  </si>
+  <si>
+    <t>PM0416</t>
+  </si>
+  <si>
+    <t>“Никольское”</t>
+  </si>
+  <si>
+    <t>МРСК</t>
+  </si>
+  <si>
+    <t>PM0417</t>
+  </si>
+  <si>
+    <t>“АГЗС Ромоданово”</t>
+  </si>
+  <si>
+    <t>АГЗС</t>
   </si>
   <si>
     <t>PM0418</t>
@@ -37,67 +139,7 @@
     <t>“М5 с. Старая Обуховка”</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Комплекс работает штатно с 27.09.2022 (через внешний LTE-роутер)</t>
-  </si>
-  <si>
-    <t>PM0407</t>
-  </si>
-  <si>
-    <t>“Стекольный завод”</t>
-  </si>
-  <si>
-    <t>Комплекс работает штатно</t>
-  </si>
-  <si>
-    <t>PM0408</t>
-  </si>
-  <si>
-    <t>“АЗС Газпромнефть (Ю-З ш.)”</t>
-  </si>
-  <si>
-    <t>PM0410</t>
-  </si>
-  <si>
-    <t>“Пушкино”</t>
-  </si>
-  <si>
-    <t>PM0411</t>
-  </si>
-  <si>
-    <t>“Въезд в Кочкурово”</t>
-  </si>
-  <si>
-    <t>PM0412</t>
-  </si>
-  <si>
-    <t>“Октябрьский” (3 опора на въезде)</t>
-  </si>
-  <si>
-    <t>PM0413</t>
-  </si>
-  <si>
-    <t>“После ключаревского поворота (Ю-З ш.)”</t>
-  </si>
-  <si>
-    <t>PM0414</t>
-  </si>
-  <si>
-    <t>“Мегастрой”</t>
-  </si>
-  <si>
-    <t>PM0416</t>
-  </si>
-  <si>
-    <t>“Никольское”</t>
-  </si>
-  <si>
-    <t>PM0417</t>
-  </si>
-  <si>
-    <t>“АГЗС Ромоданово”</t>
+    <t>МРСК-сущ</t>
   </si>
   <si>
     <t>PM0419</t>
@@ -106,24 +148,39 @@
     <t>“Сити-Парк”</t>
   </si>
   <si>
+    <t>Дирекция ЖКХ</t>
+  </si>
+  <si>
     <t>PM0420</t>
   </si>
   <si>
     <t>“Тяговая подстанция”</t>
   </si>
   <si>
+    <t>PM0421</t>
+  </si>
+  <si>
+    <t>“Атемар”</t>
+  </si>
+  <si>
     <t>PM0422</t>
   </si>
   <si>
     <t>“Выезд Ковылкино-Торбеево”</t>
   </si>
   <si>
+    <t>ТЦ</t>
+  </si>
+  <si>
     <t>PM0423</t>
   </si>
   <si>
     <t>“М5 Стоянка большегрузов”</t>
   </si>
   <si>
+    <t>ООО Стройавтотрейд</t>
+  </si>
+  <si>
     <t>PM0424</t>
   </si>
   <si>
@@ -148,65 +205,37 @@
     <t>“Аэропорт”</t>
   </si>
   <si>
+    <t>PM0429</t>
+  </si>
+  <si>
+    <t>“Островок безопасности”</t>
+  </si>
+  <si>
+    <t>PM0430</t>
+  </si>
+  <si>
+    <t>“Въезд в Саранск из Лямбирь”</t>
+  </si>
+  <si>
+    <t>PM0415</t>
+  </si>
+  <si>
+    <t>“М5 Краснослободск”</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Отключено ЭП с 7.10.2022 - требуется выезд</t>
+  </si>
+  <si>
     <t>PM0428</t>
   </si>
   <si>
     <t>“Манадыши”</t>
   </si>
   <si>
-    <t>PM0429</t>
-  </si>
-  <si>
-    <t>“Островок безопасности”</t>
-  </si>
-  <si>
-    <t>PM0409</t>
-  </si>
-  <si>
-    <t>“Первомайск”</t>
-  </si>
-  <si>
-    <t>Комплекс работает от ночного освещения, проверить работу в течении следующих дней</t>
-  </si>
-  <si>
-    <t>PM0421</t>
-  </si>
-  <si>
-    <t>“Атемар”</t>
-  </si>
-  <si>
-    <t>PM0406</t>
-  </si>
-  <si>
-    <t>“Въезд в Торбеево/Дракино”</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Нет ЭП - передислокация 30 сентября</t>
-  </si>
-  <si>
-    <t>PM0430</t>
-  </si>
-  <si>
-    <t>“Въезд в Саранск из Лямбирь”</t>
-  </si>
-  <si>
-    <t>Был онлайн ~ 8 часов с 6:00 28-сент до 14:00 28-сент - -Линк упал 28.09.2022 с 14:00</t>
-  </si>
-  <si>
-    <t>PM0415</t>
-  </si>
-  <si>
-    <t>“М5 Н.Выселки”</t>
-  </si>
-  <si>
-    <t>Был онлайн ~ 11 часов с 14:00 28-сент до 2:00 29-сент
- -Линк упал 29.09.2022 02:00</t>
+    <t>КФХ Сигнал</t>
   </si>
 </sst>
 </file>
@@ -228,8 +257,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -240,7 +268,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,12 +289,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -278,6 +312,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -291,31 +347,46 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -325,38 +396,44 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -376,11 +453,13 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff88f94e"/>
-      <rgbColor rgb="ffff968c"/>
+      <rgbColor rgb="ffff94ca"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -397,10 +476,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -577,11 +656,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -590,34 +672,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -865,12 +947,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1161,7 +1243,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1439,476 +1521,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5781" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.67188" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.67188" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.1719" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.65" customHeight="1">
+    <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="32.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="B8" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="32.05" customHeight="1">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="B9" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="B10" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="8">
+      <c r="B11" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="8">
+      <c r="B13" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="8">
+      <c r="B14" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="8">
+      <c r="B16" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="8">
+      <c r="G16" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="B17" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="8">
+      <c r="F17" t="s" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="8">
+      <c r="G17" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="B19" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="D7" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s" s="8">
+      <c r="B20" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="8">
+      <c r="G21" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="C8" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="8">
+      <c r="F22" t="s" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="8">
+      <c r="G22" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="B23" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="D9" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s" s="8">
+      <c r="B24" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="8">
+      <c r="G24" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="B25" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="8">
+      <c r="B26" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s" s="8">
+      <c r="G26" t="s" s="10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="C11" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="8">
+      <c r="B27" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="C12" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s" s="8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" ht="32.05" customHeight="1">
-      <c r="A24" s="7">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s" s="8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="7">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s" s="8">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s" s="8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" ht="44.05" customHeight="1">
-      <c r="A26" s="7">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" ht="44.05" customHeight="1">
-      <c r="A27" s="7">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s" s="8">
-        <v>63</v>
+      <c r="G27" t="s" s="10">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
